--- a/Ostatok.xlsx
+++ b/Ostatok.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
   <si>
     <t xml:space="preserve"> Нагревательный мат ТСП-75-0,5</t>
   </si>
@@ -415,15 +415,9 @@
     <t xml:space="preserve"> 1 женя киров</t>
   </si>
   <si>
-    <t>30 тимур</t>
-  </si>
-  <si>
     <t>1 шт Тимклимат</t>
   </si>
   <si>
-    <t xml:space="preserve">10 шт салават не оплаченный </t>
-  </si>
-  <si>
     <t>30 у тимура</t>
   </si>
   <si>
@@ -449,6 +443,9 @@
   </si>
   <si>
     <t>Терморег 70.26</t>
+  </si>
+  <si>
+    <t>10 шт салават не оплаченный , 30 тимур</t>
   </si>
 </sst>
 </file>
@@ -993,7 +990,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1220,6 +1217,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -1287,7 +1302,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1598,42 +1613,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="99.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" style="29" customWidth="1"/>
     <col min="2" max="2" width="25" style="31" customWidth="1"/>
     <col min="3" max="3" width="23.109375" style="31" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" style="59" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="64" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="83" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="81" customWidth="1"/>
     <col min="29" max="30" width="8.88671875" customWidth="1"/>
     <col min="31" max="31" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="1" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="58"/>
       <c r="E1" s="65"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="60"/>
       <c r="E2" s="68"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1652,8 +1668,14 @@
       <c r="E3" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="G3" s="81">
+        <v>0</v>
+      </c>
+      <c r="H3" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1672,8 +1694,14 @@
       <c r="E4" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" s="81">
+        <v>2</v>
+      </c>
+      <c r="H4" s="81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1692,8 +1720,14 @@
       <c r="E5" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="81">
+        <v>4</v>
+      </c>
+      <c r="H5" s="81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1712,8 +1746,14 @@
       <c r="E6" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="81">
+        <v>6</v>
+      </c>
+      <c r="H6" s="81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1732,8 +1772,14 @@
       <c r="E7" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="81">
+        <v>8</v>
+      </c>
+      <c r="H7" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1752,8 +1798,14 @@
       <c r="E8" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="81">
+        <v>10</v>
+      </c>
+      <c r="H8" s="81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1772,8 +1824,14 @@
       <c r="E9" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="81">
+        <v>12</v>
+      </c>
+      <c r="H9" s="81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1792,8 +1850,14 @@
       <c r="E10" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10" s="81">
+        <v>14</v>
+      </c>
+      <c r="H10" s="81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1812,8 +1876,14 @@
       <c r="E11" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="81">
+        <v>16</v>
+      </c>
+      <c r="H11" s="81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1832,8 +1902,14 @@
       <c r="E12" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.55" customHeight="1">
+      <c r="G12" s="81">
+        <v>18</v>
+      </c>
+      <c r="H12" s="81">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.55" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -1852,8 +1928,14 @@
       <c r="E13" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13" s="81">
+        <v>20</v>
+      </c>
+      <c r="H13" s="81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -1872,8 +1954,14 @@
       <c r="E14" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14" s="81">
+        <v>22</v>
+      </c>
+      <c r="H14" s="81">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1892,8 +1980,14 @@
       <c r="E15" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="81">
+        <v>24</v>
+      </c>
+      <c r="H15" s="81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1912,8 +2006,14 @@
       <c r="E16" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="81">
+        <v>26</v>
+      </c>
+      <c r="H16" s="81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1932,8 +2032,14 @@
       <c r="E17" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="81">
+        <v>28</v>
+      </c>
+      <c r="H17" s="81">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1952,8 +2058,14 @@
       <c r="E18" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1">
+      <c r="G18" s="81">
+        <v>30</v>
+      </c>
+      <c r="H18" s="81">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -1972,15 +2084,21 @@
       <c r="E19" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1">
+      <c r="G19" s="81">
+        <v>32</v>
+      </c>
+      <c r="H19" s="81">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
       <c r="D20" s="77"/>
       <c r="E20" s="78"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:8">
       <c r="A21" s="75" t="s">
         <v>115</v>
       </c>
@@ -1997,8 +2115,14 @@
       <c r="E21" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="81">
+        <v>34</v>
+      </c>
+      <c r="H21" s="81">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="75" t="s">
         <v>116</v>
       </c>
@@ -2016,8 +2140,14 @@
       <c r="E22" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="81">
+        <v>36</v>
+      </c>
+      <c r="H22" s="81">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="75" t="s">
         <v>117</v>
       </c>
@@ -2034,8 +2164,14 @@
       <c r="E23" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="G23" s="81">
+        <v>38</v>
+      </c>
+      <c r="H23" s="81">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="75" t="s">
         <v>118</v>
       </c>
@@ -2052,8 +2188,14 @@
       <c r="E24" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="G24" s="81">
+        <v>40</v>
+      </c>
+      <c r="H24" s="81">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="75" t="s">
         <v>119</v>
       </c>
@@ -2070,8 +2212,14 @@
       <c r="E25" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="G25" s="81">
+        <v>42</v>
+      </c>
+      <c r="H25" s="81">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="75" t="s">
         <v>120</v>
       </c>
@@ -2088,8 +2236,14 @@
       <c r="E26" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26" s="81">
+        <v>44</v>
+      </c>
+      <c r="H26" s="81">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="75" t="s">
         <v>121</v>
       </c>
@@ -2106,8 +2260,14 @@
       <c r="E27" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27" s="81">
+        <v>46</v>
+      </c>
+      <c r="H27" s="81">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="75" t="s">
         <v>122</v>
       </c>
@@ -2124,8 +2284,14 @@
       <c r="E28" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28" s="81">
+        <v>48</v>
+      </c>
+      <c r="H28" s="81">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="75" t="s">
         <v>123</v>
       </c>
@@ -2142,8 +2308,14 @@
       <c r="E29" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29" s="81">
+        <v>50</v>
+      </c>
+      <c r="H29" s="81">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="75" t="s">
         <v>124</v>
       </c>
@@ -2160,8 +2332,14 @@
       <c r="E30" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30" s="81">
+        <v>52</v>
+      </c>
+      <c r="H30" s="81">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="75" t="s">
         <v>125</v>
       </c>
@@ -2178,8 +2356,14 @@
       <c r="E31" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31" s="81">
+        <v>54</v>
+      </c>
+      <c r="H31" s="81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="75" t="s">
         <v>126</v>
       </c>
@@ -2196,8 +2380,14 @@
       <c r="E32" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32" s="81">
+        <v>56</v>
+      </c>
+      <c r="H32" s="81">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="75" t="s">
         <v>127</v>
       </c>
@@ -2214,8 +2404,14 @@
       <c r="E33" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33" s="81">
+        <v>58</v>
+      </c>
+      <c r="H33" s="81">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="75" t="s">
         <v>128</v>
       </c>
@@ -2232,8 +2428,14 @@
       <c r="E34" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34" s="81">
+        <v>60</v>
+      </c>
+      <c r="H34" s="81">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="75" t="s">
         <v>129</v>
       </c>
@@ -2250,8 +2452,14 @@
       <c r="E35" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35" s="81">
+        <v>62</v>
+      </c>
+      <c r="H35" s="81">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="75" t="s">
         <v>130</v>
       </c>
@@ -2268,15 +2476,21 @@
       <c r="E36" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="G36" s="81">
+        <v>64</v>
+      </c>
+      <c r="H36" s="81">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.399999999999999" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="61"/>
       <c r="E37" s="68"/>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1">
+    <row r="38" spans="1:8" s="1" customFormat="1">
       <c r="A38" s="7" t="s">
         <v>17</v>
       </c>
@@ -2295,8 +2509,15 @@
       <c r="E38" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="27.75" customHeight="1">
+      <c r="F38" s="84"/>
+      <c r="G38" s="59">
+        <v>66</v>
+      </c>
+      <c r="H38" s="59">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="27.75" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>27</v>
       </c>
@@ -2315,8 +2536,14 @@
       <c r="E39" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="25.5" customHeight="1">
+      <c r="G39" s="62">
+        <v>68</v>
+      </c>
+      <c r="H39" s="62">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="25.5" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
@@ -2335,8 +2562,14 @@
       <c r="E40" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="24.75" customHeight="1">
+      <c r="G40" s="62">
+        <v>70</v>
+      </c>
+      <c r="H40" s="62">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="24.75" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
@@ -2355,8 +2588,14 @@
       <c r="E41" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41" s="62">
+        <v>72</v>
+      </c>
+      <c r="H41" s="62">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="5" t="s">
         <v>20</v>
       </c>
@@ -2375,8 +2614,14 @@
       <c r="E42" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42" s="62">
+        <v>74</v>
+      </c>
+      <c r="H42" s="62">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="5" t="s">
         <v>21</v>
       </c>
@@ -2395,8 +2640,14 @@
       <c r="E43" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="22.5" customHeight="1">
+      <c r="G43" s="62">
+        <v>76</v>
+      </c>
+      <c r="H43" s="62">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="22.5" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
@@ -2415,8 +2666,14 @@
       <c r="E44" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="25.5" customHeight="1">
+      <c r="G44" s="62">
+        <v>78</v>
+      </c>
+      <c r="H44" s="62">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="25.5" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>23</v>
       </c>
@@ -2435,8 +2692,14 @@
       <c r="E45" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="22.5" customHeight="1">
+      <c r="G45" s="62">
+        <v>80</v>
+      </c>
+      <c r="H45" s="62">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="22.5" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>24</v>
       </c>
@@ -2455,8 +2718,14 @@
       <c r="E46" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="22.5" customHeight="1">
+      <c r="G46" s="62">
+        <v>82</v>
+      </c>
+      <c r="H46" s="62">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22.5" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>25</v>
       </c>
@@ -2475,8 +2744,14 @@
       <c r="E47" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="27" customHeight="1">
+      <c r="G47" s="62">
+        <v>84</v>
+      </c>
+      <c r="H47" s="62">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="27" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>26</v>
       </c>
@@ -2495,15 +2770,21 @@
       <c r="E48" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="25.5" customHeight="1">
+      <c r="G48" s="62">
+        <v>86</v>
+      </c>
+      <c r="H48" s="62">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="25.5" customHeight="1">
       <c r="A49" s="37"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="61"/>
       <c r="E49" s="67"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:8">
       <c r="A50" s="40" t="s">
         <v>28</v>
       </c>
@@ -2522,11 +2803,17 @@
       <c r="E50" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="83" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="19.5" customHeight="1">
+      <c r="G50" s="81">
+        <v>88</v>
+      </c>
+      <c r="H50" s="81">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.5" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>29</v>
       </c>
@@ -2545,8 +2832,14 @@
       <c r="E51" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="81">
+        <v>90</v>
+      </c>
+      <c r="H51" s="81">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="8" t="s">
         <v>30</v>
       </c>
@@ -2565,8 +2858,14 @@
       <c r="E52" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="81">
+        <v>92</v>
+      </c>
+      <c r="H52" s="81">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="8" t="s">
         <v>33</v>
       </c>
@@ -2585,8 +2884,14 @@
       <c r="E53" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="81">
+        <v>94</v>
+      </c>
+      <c r="H53" s="81">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="8" t="s">
         <v>32</v>
       </c>
@@ -2605,8 +2910,14 @@
       <c r="E54" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="81">
+        <v>96</v>
+      </c>
+      <c r="H54" s="81">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="8" t="s">
         <v>31</v>
       </c>
@@ -2625,8 +2936,14 @@
       <c r="E55" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="81">
+        <v>98</v>
+      </c>
+      <c r="H55" s="81">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="8" t="s">
         <v>35</v>
       </c>
@@ -2645,8 +2962,14 @@
       <c r="E56" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="81">
+        <v>100</v>
+      </c>
+      <c r="H56" s="81">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="8" t="s">
         <v>34</v>
       </c>
@@ -2665,8 +2988,14 @@
       <c r="E57" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="81">
+        <v>102</v>
+      </c>
+      <c r="H57" s="81">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="8" t="s">
         <v>36</v>
       </c>
@@ -2685,8 +3014,14 @@
       <c r="E58" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.55" customHeight="1">
+      <c r="G58" s="81">
+        <v>104</v>
+      </c>
+      <c r="H58" s="81">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.55" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>37</v>
       </c>
@@ -2705,8 +3040,14 @@
       <c r="E59" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="81">
+        <v>106</v>
+      </c>
+      <c r="H59" s="81">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="8" t="s">
         <v>38</v>
       </c>
@@ -2725,8 +3066,14 @@
       <c r="E60" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="81">
+        <v>108</v>
+      </c>
+      <c r="H60" s="81">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="8" t="s">
         <v>39</v>
       </c>
@@ -2745,8 +3092,14 @@
       <c r="E61" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="81">
+        <v>110</v>
+      </c>
+      <c r="H61" s="81">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="8" t="s">
         <v>40</v>
       </c>
@@ -2765,8 +3118,14 @@
       <c r="E62" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="81">
+        <v>112</v>
+      </c>
+      <c r="H62" s="81">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="8" t="s">
         <v>41</v>
       </c>
@@ -2785,8 +3144,14 @@
       <c r="E63" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="81">
+        <v>114</v>
+      </c>
+      <c r="H63" s="81">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="8" t="s">
         <v>42</v>
       </c>
@@ -2805,8 +3170,14 @@
       <c r="E64" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="81">
+        <v>116</v>
+      </c>
+      <c r="H64" s="81">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="8" t="s">
         <v>43</v>
       </c>
@@ -2825,8 +3196,14 @@
       <c r="E65" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="81">
+        <v>118</v>
+      </c>
+      <c r="H65" s="81">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="41" t="s">
         <v>44</v>
       </c>
@@ -2845,15 +3222,21 @@
       <c r="E66" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="81">
+        <v>120</v>
+      </c>
+      <c r="H66" s="81">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="37"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
       <c r="D67" s="61"/>
       <c r="E67" s="67"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:8">
       <c r="A68" s="42" t="s">
         <v>45</v>
       </c>
@@ -2872,8 +3255,14 @@
       <c r="E68" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="19.5" customHeight="1">
+      <c r="G68" s="81">
+        <v>122</v>
+      </c>
+      <c r="H68" s="81">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19.5" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>46</v>
       </c>
@@ -2892,11 +3281,17 @@
       <c r="E69" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="83" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G69" s="81">
+        <v>124</v>
+      </c>
+      <c r="H69" s="81">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="20.25" customHeight="1">
       <c r="A70" s="9" t="s">
         <v>47</v>
       </c>
@@ -2915,8 +3310,14 @@
       <c r="E70" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="19.5" customHeight="1">
+      <c r="G70" s="81">
+        <v>126</v>
+      </c>
+      <c r="H70" s="81">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19.5" customHeight="1">
       <c r="A71" s="9" t="s">
         <v>48</v>
       </c>
@@ -2935,8 +3336,14 @@
       <c r="E71" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G71" s="81">
+        <v>128</v>
+      </c>
+      <c r="H71" s="81">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="21.75" customHeight="1">
       <c r="A72" s="9" t="s">
         <v>49</v>
       </c>
@@ -2955,8 +3362,14 @@
       <c r="E72" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="16.5" customHeight="1">
+      <c r="G72" s="81">
+        <v>130</v>
+      </c>
+      <c r="H72" s="81">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="9" t="s">
         <v>50</v>
       </c>
@@ -2975,8 +3388,14 @@
       <c r="E73" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G73" s="81">
+        <v>132</v>
+      </c>
+      <c r="H73" s="81">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="20.25" customHeight="1">
       <c r="A74" s="9" t="s">
         <v>51</v>
       </c>
@@ -2995,8 +3414,14 @@
       <c r="E74" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="21" customHeight="1">
+      <c r="G74" s="81">
+        <v>134</v>
+      </c>
+      <c r="H74" s="81">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="21" customHeight="1">
       <c r="A75" s="9" t="s">
         <v>52</v>
       </c>
@@ -3015,8 +3440,14 @@
       <c r="E75" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="24.75" customHeight="1">
+      <c r="G75" s="81">
+        <v>136</v>
+      </c>
+      <c r="H75" s="81">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="24.75" customHeight="1">
       <c r="A76" s="9" t="s">
         <v>53</v>
       </c>
@@ -3035,8 +3466,14 @@
       <c r="E76" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="23.25" customHeight="1">
+      <c r="G76" s="81">
+        <v>138</v>
+      </c>
+      <c r="H76" s="81">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="23.25" customHeight="1">
       <c r="A77" s="9" t="s">
         <v>54</v>
       </c>
@@ -3055,8 +3492,14 @@
       <c r="E77" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G77" s="81">
+        <v>140</v>
+      </c>
+      <c r="H77" s="81">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="21.75" customHeight="1">
       <c r="A78" s="9" t="s">
         <v>55</v>
       </c>
@@ -3075,8 +3518,14 @@
       <c r="E78" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="22.5" customHeight="1">
+      <c r="G78" s="81">
+        <v>142</v>
+      </c>
+      <c r="H78" s="81">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="22.5" customHeight="1">
       <c r="A79" s="9" t="s">
         <v>56</v>
       </c>
@@ -3095,8 +3544,14 @@
       <c r="E79" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="21.75" customHeight="1">
+      <c r="G79" s="81">
+        <v>144</v>
+      </c>
+      <c r="H79" s="81">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="21.75" customHeight="1">
       <c r="A80" s="43" t="s">
         <v>57</v>
       </c>
@@ -3115,15 +3570,21 @@
       <c r="E80" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="23.25" customHeight="1">
+      <c r="G80" s="81">
+        <v>146</v>
+      </c>
+      <c r="H80" s="81">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="23.25" customHeight="1">
       <c r="A81" s="37"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
       <c r="D81" s="61"/>
       <c r="E81" s="67"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:8">
       <c r="A82" s="42" t="s">
         <v>58</v>
       </c>
@@ -3142,8 +3603,14 @@
       <c r="E82" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1">
+      <c r="G82" s="81">
+        <v>148</v>
+      </c>
+      <c r="H82" s="81">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18" customHeight="1">
       <c r="A83" s="9" t="s">
         <v>60</v>
       </c>
@@ -3162,8 +3629,14 @@
       <c r="E83" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G83" s="81">
+        <v>150</v>
+      </c>
+      <c r="H83" s="81">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84" s="9" t="s">
         <v>59</v>
       </c>
@@ -3182,8 +3655,14 @@
       <c r="E84" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="17.25" customHeight="1">
+      <c r="G84" s="81">
+        <v>152</v>
+      </c>
+      <c r="H84" s="81">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" customHeight="1">
       <c r="A85" s="9" t="s">
         <v>61</v>
       </c>
@@ -3202,8 +3681,14 @@
       <c r="E85" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="17.25" customHeight="1">
+      <c r="G85" s="81">
+        <v>154</v>
+      </c>
+      <c r="H85" s="81">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>62</v>
       </c>
@@ -3222,8 +3707,14 @@
       <c r="E86" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="81">
+        <v>156</v>
+      </c>
+      <c r="H86" s="81">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="9" t="s">
         <v>63</v>
       </c>
@@ -3242,8 +3733,14 @@
       <c r="E87" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="18" customHeight="1">
+      <c r="G87" s="81">
+        <v>158</v>
+      </c>
+      <c r="H87" s="81">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>64</v>
       </c>
@@ -3262,11 +3759,17 @@
       <c r="E88" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="F88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1">
+      <c r="F88" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88" s="81">
+        <v>160</v>
+      </c>
+      <c r="H88" s="81">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>65</v>
       </c>
@@ -3285,8 +3788,14 @@
       <c r="E89" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="14.55" customHeight="1">
+      <c r="G89" s="81">
+        <v>162</v>
+      </c>
+      <c r="H89" s="81">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14.55" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>66</v>
       </c>
@@ -3305,8 +3814,14 @@
       <c r="E90" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="16.5" customHeight="1">
+      <c r="G90" s="81">
+        <v>164</v>
+      </c>
+      <c r="H90" s="81">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>67</v>
       </c>
@@ -3325,8 +3840,14 @@
       <c r="E91" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="81">
+        <v>166</v>
+      </c>
+      <c r="H91" s="81">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="9" t="s">
         <v>72</v>
       </c>
@@ -3345,8 +3866,14 @@
       <c r="E92" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="81">
+        <v>168</v>
+      </c>
+      <c r="H92" s="81">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="9" t="s">
         <v>68</v>
       </c>
@@ -3365,8 +3892,14 @@
       <c r="E93" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="81">
+        <v>170</v>
+      </c>
+      <c r="H93" s="81">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="9" t="s">
         <v>69</v>
       </c>
@@ -3385,8 +3918,14 @@
       <c r="E94" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="81">
+        <v>172</v>
+      </c>
+      <c r="H94" s="81">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="9" t="s">
         <v>70</v>
       </c>
@@ -3405,8 +3944,14 @@
       <c r="E95" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="81">
+        <v>174</v>
+      </c>
+      <c r="H95" s="81">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="43" t="s">
         <v>71</v>
       </c>
@@ -3425,15 +3970,21 @@
       <c r="E96" s="66" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="14.4" customHeight="1">
+      <c r="G96" s="81">
+        <v>176</v>
+      </c>
+      <c r="H96" s="81">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="14.4" customHeight="1">
       <c r="A97" s="46"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
       <c r="D97" s="61"/>
       <c r="E97" s="67"/>
     </row>
-    <row r="98" spans="1:6" ht="14.4" customHeight="1">
+    <row r="98" spans="1:8" ht="14.4" customHeight="1">
       <c r="A98" s="44" t="s">
         <v>73</v>
       </c>
@@ -3452,8 +4003,14 @@
       <c r="E98" s="64">
         <v>375</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="14.4" customHeight="1">
+      <c r="G98" s="81">
+        <v>178</v>
+      </c>
+      <c r="H98" s="81">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="14.4" customHeight="1">
       <c r="A99" s="10" t="s">
         <v>74</v>
       </c>
@@ -3472,8 +4029,14 @@
       <c r="E99" s="64">
         <v>330</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="13.8" customHeight="1">
+      <c r="G99" s="81">
+        <v>180</v>
+      </c>
+      <c r="H99" s="81">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="13.8" customHeight="1">
       <c r="A100" s="11" t="s">
         <v>75</v>
       </c>
@@ -3492,8 +4055,14 @@
       <c r="E100" s="64">
         <v>215</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="16.8" customHeight="1">
+      <c r="G100" s="81">
+        <v>182</v>
+      </c>
+      <c r="H100" s="81">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.8" customHeight="1">
       <c r="A101" s="45" t="s">
         <v>76</v>
       </c>
@@ -3512,20 +4081,29 @@
       <c r="E101" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="F101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" s="3" customFormat="1">
+      <c r="F101" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="G101" s="81">
+        <v>184</v>
+      </c>
+      <c r="H101" s="81">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="3" customFormat="1">
       <c r="A102" s="48"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
       <c r="D102" s="61"/>
       <c r="E102" s="67"/>
-    </row>
-    <row r="103" spans="1:6" s="3" customFormat="1">
+      <c r="F102" s="85"/>
+      <c r="G102" s="81"/>
+      <c r="H102" s="81"/>
+    </row>
+    <row r="103" spans="1:8" s="3" customFormat="1">
       <c r="A103" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B103" s="31">
         <f xml:space="preserve"> 7 - D103+C103+1</f>
@@ -3542,10 +4120,17 @@
       <c r="E103" s="64">
         <v>961</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" s="3" customFormat="1">
+      <c r="F103" s="85"/>
+      <c r="G103" s="81">
+        <v>186</v>
+      </c>
+      <c r="H103" s="81">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="3" customFormat="1">
       <c r="A104" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B104" s="31">
         <f>39+C104-D104-1</f>
@@ -3562,10 +4147,17 @@
       <c r="E104" s="64">
         <v>1090</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" s="3" customFormat="1">
+      <c r="F104" s="85"/>
+      <c r="G104" s="81">
+        <v>188</v>
+      </c>
+      <c r="H104" s="81">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="3" customFormat="1">
       <c r="A105" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B105" s="31">
         <f>55+2+C105-D105+2-5</f>
@@ -3582,8 +4174,15 @@
       <c r="E105" s="64">
         <v>2250</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" s="3" customFormat="1">
+      <c r="F105" s="85"/>
+      <c r="G105" s="81">
+        <v>190</v>
+      </c>
+      <c r="H105" s="81">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="3" customFormat="1">
       <c r="A106" s="73" t="s">
         <v>113</v>
       </c>
@@ -3602,11 +4201,17 @@
       <c r="E106" s="64">
         <v>3300</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="3" customFormat="1">
+      <c r="F106" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="G106" s="81">
+        <v>192</v>
+      </c>
+      <c r="H106" s="81">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="3" customFormat="1">
       <c r="A107" s="73" t="s">
         <v>114</v>
       </c>
@@ -3625,10 +4230,17 @@
       <c r="E107" s="64">
         <v>2880</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F107" s="85"/>
+      <c r="G107" s="81">
+        <v>194</v>
+      </c>
+      <c r="H107" s="81">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A108" s="74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B108" s="31">
         <f>7+C108-D108</f>
@@ -3645,10 +4257,17 @@
       <c r="E108" s="64">
         <v>500</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" s="3" customFormat="1">
+      <c r="F108" s="85"/>
+      <c r="G108" s="81">
+        <v>196</v>
+      </c>
+      <c r="H108" s="81">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="3" customFormat="1">
       <c r="A109" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B109" s="31">
         <f>64+6+C109-D109-4</f>
@@ -3665,8 +4284,15 @@
       <c r="E109" s="64">
         <v>500</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" s="3" customFormat="1">
+      <c r="F109" s="85"/>
+      <c r="G109" s="81">
+        <v>198</v>
+      </c>
+      <c r="H109" s="81">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="3" customFormat="1">
       <c r="A110" s="14" t="s">
         <v>77</v>
       </c>
@@ -3685,8 +4311,15 @@
       <c r="E110" s="64">
         <v>3500</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" s="3" customFormat="1">
+      <c r="F110" s="85"/>
+      <c r="G110" s="81">
+        <v>200</v>
+      </c>
+      <c r="H110" s="81">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="3" customFormat="1">
       <c r="A111" s="15" t="s">
         <v>78</v>
       </c>
@@ -3705,8 +4338,15 @@
       <c r="E111" s="64">
         <v>3300</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" s="3" customFormat="1">
+      <c r="F111" s="85"/>
+      <c r="G111" s="81">
+        <v>202</v>
+      </c>
+      <c r="H111" s="81">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="3" customFormat="1">
       <c r="A112" s="15" t="s">
         <v>79</v>
       </c>
@@ -3725,8 +4365,15 @@
       <c r="E112" s="64">
         <v>2500</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" s="3" customFormat="1">
+      <c r="F112" s="85"/>
+      <c r="G112" s="81">
+        <v>204</v>
+      </c>
+      <c r="H112" s="81">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="3" customFormat="1">
       <c r="A113" s="14" t="s">
         <v>80</v>
       </c>
@@ -3745,11 +4392,17 @@
       <c r="E113" s="64">
         <v>2500</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F113" s="85" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" s="3" customFormat="1">
+      <c r="G113" s="81">
+        <v>206</v>
+      </c>
+      <c r="H113" s="81">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="3" customFormat="1">
       <c r="A114" s="49" t="s">
         <v>81</v>
       </c>
@@ -3768,8 +4421,15 @@
       <c r="E114" s="64">
         <v>3200</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" s="3" customFormat="1">
+      <c r="F114" s="85"/>
+      <c r="G114" s="81">
+        <v>208</v>
+      </c>
+      <c r="H114" s="81">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="3" customFormat="1">
       <c r="A115" s="72" t="s">
         <v>105</v>
       </c>
@@ -3788,15 +4448,25 @@
       <c r="E115" s="71">
         <v>400</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" s="3" customFormat="1">
+      <c r="F115" s="85"/>
+      <c r="G115" s="81">
+        <v>210</v>
+      </c>
+      <c r="H115" s="81">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="3" customFormat="1">
       <c r="A116" s="51"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
       <c r="D116" s="61"/>
       <c r="E116" s="67"/>
-    </row>
-    <row r="117" spans="1:6" s="3" customFormat="1">
+      <c r="F116" s="85"/>
+      <c r="G116" s="81"/>
+      <c r="H116" s="81"/>
+    </row>
+    <row r="117" spans="1:8" s="3" customFormat="1">
       <c r="A117" s="50" t="s">
         <v>82</v>
       </c>
@@ -3813,13 +4483,19 @@
         <v>5100</v>
       </c>
       <c r="E117" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F117" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" s="3" customFormat="1">
+      <c r="F117" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="G117" s="81">
+        <v>212</v>
+      </c>
+      <c r="H117" s="81">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="3" customFormat="1">
       <c r="A118" s="52" t="s">
         <v>86</v>
       </c>
@@ -3838,8 +4514,15 @@
       <c r="E118" s="64" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" s="3" customFormat="1">
+      <c r="F118" s="85"/>
+      <c r="G118" s="81">
+        <v>214</v>
+      </c>
+      <c r="H118" s="81">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="3" customFormat="1">
       <c r="A119" s="70" t="s">
         <v>101</v>
       </c>
@@ -3858,15 +4541,25 @@
       <c r="E119" s="71" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" s="3" customFormat="1">
+      <c r="F119" s="85"/>
+      <c r="G119" s="81">
+        <v>216</v>
+      </c>
+      <c r="H119" s="81">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="3" customFormat="1">
       <c r="A120" s="51"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
       <c r="D120" s="61"/>
       <c r="E120" s="67"/>
-    </row>
-    <row r="121" spans="1:6" s="3" customFormat="1">
+      <c r="F120" s="85"/>
+      <c r="G120" s="81"/>
+      <c r="H120" s="81"/>
+    </row>
+    <row r="121" spans="1:8" s="3" customFormat="1">
       <c r="A121" s="54" t="s">
         <v>83</v>
       </c>
@@ -3885,8 +4578,15 @@
       <c r="E121" s="64">
         <v>130</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" s="3" customFormat="1">
+      <c r="F121" s="85"/>
+      <c r="G121" s="81">
+        <v>218</v>
+      </c>
+      <c r="H121" s="81">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="3" customFormat="1">
       <c r="A122" s="79" t="s">
         <v>131</v>
       </c>
@@ -3905,15 +4605,25 @@
       <c r="E122" s="71">
         <v>130</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" s="3" customFormat="1">
+      <c r="F122" s="85"/>
+      <c r="G122" s="81">
+        <v>220</v>
+      </c>
+      <c r="H122" s="81">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="3" customFormat="1">
       <c r="A123" s="56"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
       <c r="D123" s="61"/>
       <c r="E123" s="67"/>
-    </row>
-    <row r="124" spans="1:6" s="3" customFormat="1">
+      <c r="F123" s="85"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="81"/>
+    </row>
+    <row r="124" spans="1:8" s="3" customFormat="1">
       <c r="A124" s="55" t="s">
         <v>84</v>
       </c>
@@ -3931,8 +4641,15 @@
       <c r="E124" s="64">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" s="3" customFormat="1">
+      <c r="F124" s="85"/>
+      <c r="G124" s="81">
+        <v>222</v>
+      </c>
+      <c r="H124" s="81">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="3" customFormat="1">
       <c r="A125" s="17" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4668,15 @@
       <c r="E125" s="64">
         <v>127</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" s="3" customFormat="1">
+      <c r="F125" s="85"/>
+      <c r="G125" s="81">
+        <v>224</v>
+      </c>
+      <c r="H125" s="81">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="3" customFormat="1">
       <c r="A126" s="49" t="s">
         <v>87</v>
       </c>
@@ -3971,15 +4695,25 @@
       <c r="E126" s="64">
         <v>220</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" s="3" customFormat="1">
+      <c r="F126" s="85"/>
+      <c r="G126" s="81">
+        <v>226</v>
+      </c>
+      <c r="H126" s="81">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="3" customFormat="1">
       <c r="A127" s="56"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
       <c r="D127" s="61"/>
       <c r="E127" s="67"/>
-    </row>
-    <row r="128" spans="1:6" s="3" customFormat="1">
+      <c r="F127" s="85"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="81"/>
+    </row>
+    <row r="128" spans="1:8" s="3" customFormat="1">
       <c r="A128" s="53" t="s">
         <v>88</v>
       </c>
@@ -3998,8 +4732,15 @@
       <c r="E128" s="64">
         <v>720</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" s="3" customFormat="1">
+      <c r="F128" s="85"/>
+      <c r="G128" s="81">
+        <v>228</v>
+      </c>
+      <c r="H128" s="81">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="3" customFormat="1">
       <c r="A129" s="57" t="s">
         <v>89</v>
       </c>
@@ -4018,15 +4759,25 @@
       <c r="E129" s="64">
         <v>1000</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" s="3" customFormat="1">
+      <c r="F129" s="85"/>
+      <c r="G129" s="81">
+        <v>230</v>
+      </c>
+      <c r="H129" s="81">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="3" customFormat="1">
       <c r="A130" s="56"/>
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
       <c r="D130" s="61"/>
       <c r="E130" s="67"/>
-    </row>
-    <row r="131" spans="1:7" s="3" customFormat="1">
+      <c r="F130" s="85"/>
+      <c r="G130" s="81"/>
+      <c r="H130" s="81"/>
+    </row>
+    <row r="131" spans="1:8" s="3" customFormat="1">
       <c r="A131" s="53" t="s">
         <v>90</v>
       </c>
@@ -4045,8 +4796,15 @@
       <c r="E131" s="64">
         <v>750</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" s="3" customFormat="1">
+      <c r="F131" s="85"/>
+      <c r="G131" s="81">
+        <v>232</v>
+      </c>
+      <c r="H131" s="81">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="3" customFormat="1">
       <c r="A132" s="16" t="s">
         <v>91</v>
       </c>
@@ -4065,8 +4823,15 @@
       <c r="E132" s="64">
         <v>1000</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" s="3" customFormat="1">
+      <c r="F132" s="85"/>
+      <c r="G132" s="81">
+        <v>234</v>
+      </c>
+      <c r="H132" s="81">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="3" customFormat="1">
       <c r="A133" s="12" t="s">
         <v>102</v>
       </c>
@@ -4085,8 +4850,15 @@
       <c r="E133" s="64">
         <v>170</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" s="3" customFormat="1">
+      <c r="F133" s="85"/>
+      <c r="G133" s="81">
+        <v>236</v>
+      </c>
+      <c r="H133" s="81">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="3" customFormat="1">
       <c r="A134" s="12" t="s">
         <v>103</v>
       </c>
@@ -4106,14 +4878,17 @@
         <f>150</f>
         <v>150</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="3" customFormat="1">
+      <c r="F134" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="G134" s="81">
+        <v>238</v>
+      </c>
+      <c r="H134" s="81">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="3" customFormat="1">
       <c r="A135" s="12" t="s">
         <v>104</v>
       </c>
@@ -4132,8 +4907,15 @@
       <c r="E135" s="64">
         <v>60</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" s="3" customFormat="1">
+      <c r="F135" s="85"/>
+      <c r="G135" s="81">
+        <v>240</v>
+      </c>
+      <c r="H135" s="81">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="3" customFormat="1">
       <c r="A136" s="12" t="s">
         <v>95</v>
       </c>
@@ -4152,8 +4934,15 @@
       <c r="E136" s="64">
         <v>250</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" s="3" customFormat="1">
+      <c r="F136" s="85"/>
+      <c r="G136" s="81">
+        <v>242</v>
+      </c>
+      <c r="H136" s="81">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="3" customFormat="1">
       <c r="A137" s="16" t="s">
         <v>94</v>
       </c>
@@ -4172,8 +4961,15 @@
       <c r="E137" s="64">
         <v>340</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" s="3" customFormat="1">
+      <c r="F137" s="85"/>
+      <c r="G137" s="81">
+        <v>244</v>
+      </c>
+      <c r="H137" s="81">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="3" customFormat="1">
       <c r="A138" s="16" t="s">
         <v>99</v>
       </c>
@@ -4192,8 +4988,15 @@
       <c r="E138" s="64">
         <v>2248</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" s="3" customFormat="1">
+      <c r="F138" s="85"/>
+      <c r="G138" s="81">
+        <v>246</v>
+      </c>
+      <c r="H138" s="81">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="3" customFormat="1">
       <c r="A139" s="16" t="s">
         <v>100</v>
       </c>
@@ -4212,8 +5015,15 @@
       <c r="E139" s="64">
         <v>550</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" s="3" customFormat="1">
+      <c r="F139" s="85"/>
+      <c r="G139" s="81">
+        <v>248</v>
+      </c>
+      <c r="H139" s="81">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="3" customFormat="1">
       <c r="A140" s="16" t="s">
         <v>96</v>
       </c>
@@ -4232,8 +5042,15 @@
       <c r="E140" s="64">
         <v>6179</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" s="3" customFormat="1">
+      <c r="F140" s="85"/>
+      <c r="G140" s="81">
+        <v>250</v>
+      </c>
+      <c r="H140" s="81">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="3" customFormat="1">
       <c r="A141" s="16" t="s">
         <v>97</v>
       </c>
@@ -4252,8 +5069,15 @@
       <c r="E141" s="64">
         <v>22853</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" s="3" customFormat="1">
+      <c r="F141" s="85"/>
+      <c r="G141" s="81">
+        <v>252</v>
+      </c>
+      <c r="H141" s="81">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="3" customFormat="1">
       <c r="A142" s="16" t="s">
         <v>98</v>
       </c>
@@ -4272,8 +5096,15 @@
       <c r="E142" s="64">
         <v>16505</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" s="3" customFormat="1">
+      <c r="F142" s="85"/>
+      <c r="G142" s="81">
+        <v>254</v>
+      </c>
+      <c r="H142" s="81">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="3" customFormat="1">
       <c r="A143" s="16" t="s">
         <v>108</v>
       </c>
@@ -4292,8 +5123,15 @@
       <c r="E143" s="64" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" s="3" customFormat="1">
+      <c r="F143" s="85"/>
+      <c r="G143" s="81">
+        <v>256</v>
+      </c>
+      <c r="H143" s="81">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="3" customFormat="1">
       <c r="A144" s="16" t="s">
         <v>106</v>
       </c>
@@ -4312,8 +5150,15 @@
       <c r="E144" s="64" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" s="3" customFormat="1">
+      <c r="F144" s="85"/>
+      <c r="G144" s="81">
+        <v>258</v>
+      </c>
+      <c r="H144" s="81">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="3" customFormat="1">
       <c r="A145" s="16" t="s">
         <v>107</v>
       </c>
@@ -4332,8 +5177,15 @@
       <c r="E145" s="64" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" s="3" customFormat="1">
+      <c r="F145" s="85"/>
+      <c r="G145" s="81">
+        <v>260</v>
+      </c>
+      <c r="H145" s="81">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="3" customFormat="1">
       <c r="A146" s="16" t="s">
         <v>109</v>
       </c>
@@ -4352,1007 +5204,1437 @@
       <c r="E146" s="64" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" s="3" customFormat="1">
+      <c r="F146" s="85"/>
+      <c r="G146" s="81">
+        <v>262</v>
+      </c>
+      <c r="H146" s="81">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="3" customFormat="1">
       <c r="A147" s="16"/>
       <c r="B147" s="31"/>
       <c r="C147" s="31"/>
       <c r="D147" s="59"/>
       <c r="E147" s="64"/>
-    </row>
-    <row r="148" spans="1:5" s="3" customFormat="1">
+      <c r="F147" s="85"/>
+      <c r="G147" s="81"/>
+      <c r="H147" s="81"/>
+    </row>
+    <row r="148" spans="1:8" s="3" customFormat="1">
       <c r="A148" s="16"/>
       <c r="B148" s="31"/>
       <c r="C148" s="31"/>
       <c r="D148" s="59"/>
       <c r="E148" s="64"/>
-    </row>
-    <row r="149" spans="1:5" s="3" customFormat="1">
+      <c r="F148" s="85"/>
+      <c r="G148" s="81"/>
+      <c r="H148" s="81"/>
+    </row>
+    <row r="149" spans="1:8" s="3" customFormat="1">
       <c r="A149" s="16"/>
       <c r="B149" s="31"/>
       <c r="C149" s="31"/>
       <c r="D149" s="59"/>
       <c r="E149" s="64"/>
-    </row>
-    <row r="150" spans="1:5" s="3" customFormat="1">
+      <c r="F149" s="85"/>
+      <c r="G149" s="81"/>
+      <c r="H149" s="81"/>
+    </row>
+    <row r="150" spans="1:8" s="3" customFormat="1">
       <c r="A150" s="16"/>
       <c r="B150" s="31"/>
       <c r="C150" s="31"/>
       <c r="D150" s="59"/>
       <c r="E150" s="64"/>
-    </row>
-    <row r="151" spans="1:5" s="3" customFormat="1">
+      <c r="F150" s="85"/>
+      <c r="G150" s="81"/>
+      <c r="H150" s="81"/>
+    </row>
+    <row r="151" spans="1:8" s="3" customFormat="1">
       <c r="A151" s="16"/>
       <c r="B151" s="31"/>
       <c r="C151" s="31"/>
       <c r="D151" s="59"/>
       <c r="E151" s="64"/>
-    </row>
-    <row r="152" spans="1:5" s="3" customFormat="1">
+      <c r="F151" s="85"/>
+      <c r="G151" s="81"/>
+      <c r="H151" s="81"/>
+    </row>
+    <row r="152" spans="1:8" s="3" customFormat="1">
       <c r="A152" s="16"/>
       <c r="B152" s="31"/>
       <c r="C152" s="31"/>
       <c r="D152" s="59"/>
       <c r="E152" s="64"/>
-    </row>
-    <row r="153" spans="1:5" s="3" customFormat="1">
+      <c r="F152" s="85"/>
+      <c r="G152" s="81"/>
+      <c r="H152" s="81"/>
+    </row>
+    <row r="153" spans="1:8" s="3" customFormat="1">
       <c r="A153" s="80"/>
       <c r="B153" s="31"/>
       <c r="C153" s="31"/>
       <c r="D153" s="59"/>
       <c r="E153" s="64"/>
-    </row>
-    <row r="154" spans="1:5" s="3" customFormat="1">
+      <c r="F153" s="85"/>
+      <c r="G153" s="81"/>
+      <c r="H153" s="81"/>
+    </row>
+    <row r="154" spans="1:8" s="3" customFormat="1">
       <c r="A154" s="16"/>
       <c r="B154" s="31"/>
       <c r="C154" s="31"/>
       <c r="D154" s="59"/>
       <c r="E154" s="64"/>
-    </row>
-    <row r="155" spans="1:5" s="3" customFormat="1">
+      <c r="F154" s="85"/>
+      <c r="G154" s="81"/>
+      <c r="H154" s="81"/>
+    </row>
+    <row r="155" spans="1:8" s="3" customFormat="1">
       <c r="A155" s="16"/>
       <c r="B155" s="34"/>
       <c r="C155" s="31"/>
       <c r="D155" s="59"/>
       <c r="E155" s="64"/>
-    </row>
-    <row r="156" spans="1:5" s="3" customFormat="1">
+      <c r="F155" s="85"/>
+      <c r="G155" s="81"/>
+      <c r="H155" s="81"/>
+    </row>
+    <row r="156" spans="1:8" s="3" customFormat="1">
       <c r="A156" s="16"/>
       <c r="B156" s="31"/>
       <c r="C156" s="31"/>
       <c r="D156" s="59"/>
       <c r="E156" s="64"/>
-    </row>
-    <row r="157" spans="1:5" s="3" customFormat="1">
+      <c r="F156" s="85"/>
+      <c r="G156" s="81"/>
+      <c r="H156" s="81"/>
+    </row>
+    <row r="157" spans="1:8" s="3" customFormat="1">
       <c r="A157" s="16"/>
       <c r="B157" s="31"/>
       <c r="C157" s="31"/>
       <c r="D157" s="59"/>
       <c r="E157" s="64"/>
-    </row>
-    <row r="158" spans="1:5" s="3" customFormat="1">
+      <c r="F157" s="85"/>
+      <c r="G157" s="81"/>
+      <c r="H157" s="81"/>
+    </row>
+    <row r="158" spans="1:8" s="3" customFormat="1">
       <c r="A158" s="16"/>
       <c r="B158" s="31"/>
       <c r="C158" s="31"/>
       <c r="D158" s="59"/>
       <c r="E158" s="64"/>
-    </row>
-    <row r="159" spans="1:5" s="3" customFormat="1">
+      <c r="F158" s="85"/>
+      <c r="G158" s="81"/>
+      <c r="H158" s="81"/>
+    </row>
+    <row r="159" spans="1:8" s="3" customFormat="1">
       <c r="A159" s="16"/>
       <c r="B159" s="31"/>
       <c r="C159" s="31"/>
       <c r="D159" s="59"/>
       <c r="E159" s="64"/>
-    </row>
-    <row r="160" spans="1:5" s="3" customFormat="1">
+      <c r="F159" s="85"/>
+      <c r="G159" s="81"/>
+      <c r="H159" s="81"/>
+    </row>
+    <row r="160" spans="1:8" s="3" customFormat="1">
       <c r="A160" s="16"/>
       <c r="B160" s="31"/>
       <c r="C160" s="31"/>
       <c r="D160" s="59"/>
       <c r="E160" s="64"/>
-    </row>
-    <row r="161" spans="1:5" s="3" customFormat="1">
+      <c r="F160" s="85"/>
+      <c r="G160" s="81"/>
+      <c r="H160" s="81"/>
+    </row>
+    <row r="161" spans="1:8" s="3" customFormat="1">
       <c r="A161" s="16"/>
       <c r="B161" s="31"/>
       <c r="C161" s="31"/>
       <c r="D161" s="59"/>
       <c r="E161" s="64"/>
-    </row>
-    <row r="162" spans="1:5" s="3" customFormat="1">
+      <c r="F161" s="85"/>
+      <c r="G161" s="81"/>
+      <c r="H161" s="81"/>
+    </row>
+    <row r="162" spans="1:8" s="3" customFormat="1">
       <c r="A162" s="16"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31"/>
       <c r="D162" s="59"/>
       <c r="E162" s="64"/>
-    </row>
-    <row r="163" spans="1:5" s="3" customFormat="1">
+      <c r="F162" s="85"/>
+      <c r="G162" s="81"/>
+      <c r="H162" s="81"/>
+    </row>
+    <row r="163" spans="1:8" s="3" customFormat="1">
       <c r="A163" s="16"/>
       <c r="B163" s="31"/>
       <c r="C163" s="31"/>
       <c r="D163" s="59"/>
       <c r="E163" s="64"/>
-    </row>
-    <row r="164" spans="1:5" s="3" customFormat="1">
+      <c r="F163" s="85"/>
+      <c r="G163" s="81"/>
+      <c r="H163" s="81"/>
+    </row>
+    <row r="164" spans="1:8" s="3" customFormat="1">
       <c r="A164" s="16"/>
       <c r="B164" s="31"/>
       <c r="C164" s="31"/>
       <c r="D164" s="59"/>
       <c r="E164" s="64"/>
-    </row>
-    <row r="165" spans="1:5" s="3" customFormat="1">
+      <c r="F164" s="85"/>
+      <c r="G164" s="81"/>
+      <c r="H164" s="81"/>
+    </row>
+    <row r="165" spans="1:8" s="3" customFormat="1">
       <c r="A165" s="16"/>
       <c r="B165" s="31"/>
       <c r="C165" s="31"/>
       <c r="D165" s="59"/>
       <c r="E165" s="64"/>
-    </row>
-    <row r="166" spans="1:5" s="3" customFormat="1">
+      <c r="F165" s="85"/>
+      <c r="G165" s="81"/>
+      <c r="H165" s="81"/>
+    </row>
+    <row r="166" spans="1:8" s="3" customFormat="1">
       <c r="A166" s="16"/>
       <c r="B166" s="31"/>
       <c r="C166" s="31"/>
       <c r="D166" s="59"/>
       <c r="E166" s="64"/>
-    </row>
-    <row r="167" spans="1:5" s="3" customFormat="1">
+      <c r="F166" s="85"/>
+      <c r="G166" s="81"/>
+      <c r="H166" s="81"/>
+    </row>
+    <row r="167" spans="1:8" s="3" customFormat="1">
       <c r="A167" s="20"/>
       <c r="B167" s="31"/>
       <c r="C167" s="31"/>
       <c r="D167" s="59"/>
       <c r="E167" s="64"/>
-    </row>
-    <row r="168" spans="1:5" s="3" customFormat="1">
+      <c r="F167" s="85"/>
+      <c r="G167" s="81"/>
+      <c r="H167" s="81"/>
+    </row>
+    <row r="168" spans="1:8" s="3" customFormat="1">
       <c r="A168" s="16"/>
       <c r="B168" s="31"/>
       <c r="C168" s="31"/>
       <c r="D168" s="59"/>
       <c r="E168" s="64"/>
-    </row>
-    <row r="169" spans="1:5" s="3" customFormat="1">
+      <c r="F168" s="85"/>
+      <c r="G168" s="81"/>
+      <c r="H168" s="81"/>
+    </row>
+    <row r="169" spans="1:8" s="3" customFormat="1">
       <c r="A169" s="16"/>
       <c r="B169" s="35"/>
       <c r="C169" s="31"/>
       <c r="D169" s="59"/>
       <c r="E169" s="64"/>
-    </row>
-    <row r="170" spans="1:5" s="3" customFormat="1">
+      <c r="F169" s="85"/>
+      <c r="G169" s="81"/>
+      <c r="H169" s="81"/>
+    </row>
+    <row r="170" spans="1:8" s="3" customFormat="1">
       <c r="A170" s="16"/>
       <c r="B170" s="31"/>
       <c r="C170" s="31"/>
       <c r="D170" s="59"/>
       <c r="E170" s="64"/>
-    </row>
-    <row r="171" spans="1:5" s="3" customFormat="1">
+      <c r="F170" s="85"/>
+      <c r="G170" s="81"/>
+      <c r="H170" s="81"/>
+    </row>
+    <row r="171" spans="1:8" s="3" customFormat="1">
       <c r="A171" s="16"/>
       <c r="B171" s="31"/>
       <c r="C171" s="31"/>
       <c r="D171" s="59"/>
       <c r="E171" s="64"/>
-    </row>
-    <row r="172" spans="1:5" s="3" customFormat="1">
+      <c r="F171" s="85"/>
+      <c r="G171" s="81"/>
+      <c r="H171" s="81"/>
+    </row>
+    <row r="172" spans="1:8" s="3" customFormat="1">
       <c r="A172" s="16"/>
       <c r="B172" s="31"/>
       <c r="C172" s="31"/>
       <c r="D172" s="59"/>
       <c r="E172" s="64"/>
-    </row>
-    <row r="173" spans="1:5" s="3" customFormat="1">
+      <c r="F172" s="85"/>
+      <c r="G172" s="81"/>
+      <c r="H172" s="81"/>
+    </row>
+    <row r="173" spans="1:8" s="3" customFormat="1">
       <c r="A173" s="16"/>
       <c r="B173" s="31"/>
       <c r="C173" s="31"/>
       <c r="D173" s="59"/>
       <c r="E173" s="64"/>
-    </row>
-    <row r="174" spans="1:5" s="3" customFormat="1">
+      <c r="F173" s="85"/>
+      <c r="G173" s="81"/>
+      <c r="H173" s="81"/>
+    </row>
+    <row r="174" spans="1:8" s="3" customFormat="1">
       <c r="A174" s="16"/>
       <c r="B174" s="31"/>
       <c r="C174" s="31"/>
       <c r="D174" s="59"/>
       <c r="E174" s="64"/>
-    </row>
-    <row r="175" spans="1:5" s="3" customFormat="1">
+      <c r="F174" s="85"/>
+      <c r="G174" s="81"/>
+      <c r="H174" s="81"/>
+    </row>
+    <row r="175" spans="1:8" s="3" customFormat="1">
       <c r="A175" s="16"/>
       <c r="B175" s="31"/>
       <c r="C175" s="31"/>
       <c r="D175" s="59"/>
       <c r="E175" s="64"/>
-    </row>
-    <row r="176" spans="1:5" s="3" customFormat="1">
+      <c r="F175" s="85"/>
+      <c r="G175" s="81"/>
+      <c r="H175" s="81"/>
+    </row>
+    <row r="176" spans="1:8" s="3" customFormat="1">
       <c r="A176" s="16"/>
       <c r="B176" s="31"/>
       <c r="C176" s="31"/>
       <c r="D176" s="59"/>
       <c r="E176" s="64"/>
-    </row>
-    <row r="177" spans="1:5" s="3" customFormat="1">
+      <c r="F176" s="85"/>
+      <c r="G176" s="81"/>
+      <c r="H176" s="81"/>
+    </row>
+    <row r="177" spans="1:8" s="3" customFormat="1">
       <c r="A177" s="16"/>
       <c r="B177" s="31"/>
       <c r="C177" s="31"/>
       <c r="D177" s="59"/>
       <c r="E177" s="64"/>
-    </row>
-    <row r="178" spans="1:5" s="3" customFormat="1">
+      <c r="F177" s="85"/>
+      <c r="G177" s="81"/>
+      <c r="H177" s="81"/>
+    </row>
+    <row r="178" spans="1:8" s="3" customFormat="1">
       <c r="A178" s="16"/>
       <c r="B178" s="31"/>
       <c r="C178" s="31"/>
       <c r="D178" s="59"/>
       <c r="E178" s="64"/>
-    </row>
-    <row r="179" spans="1:5" s="3" customFormat="1">
+      <c r="F178" s="85"/>
+      <c r="G178" s="81"/>
+      <c r="H178" s="81"/>
+    </row>
+    <row r="179" spans="1:8" s="3" customFormat="1">
       <c r="A179" s="16"/>
       <c r="B179" s="31"/>
       <c r="C179" s="31"/>
       <c r="D179" s="59"/>
       <c r="E179" s="64"/>
-    </row>
-    <row r="180" spans="1:5" s="3" customFormat="1">
+      <c r="F179" s="85"/>
+      <c r="G179" s="81"/>
+      <c r="H179" s="81"/>
+    </row>
+    <row r="180" spans="1:8" s="3" customFormat="1">
       <c r="A180" s="16"/>
       <c r="B180" s="31"/>
       <c r="C180" s="31"/>
       <c r="D180" s="59"/>
       <c r="E180" s="64"/>
-    </row>
-    <row r="181" spans="1:5" s="3" customFormat="1" ht="22.8">
+      <c r="F180" s="85"/>
+      <c r="G180" s="81"/>
+      <c r="H180" s="81"/>
+    </row>
+    <row r="181" spans="1:8" s="3" customFormat="1" ht="22.8">
       <c r="A181" s="18"/>
       <c r="B181" s="31"/>
       <c r="C181" s="31"/>
       <c r="D181" s="59"/>
       <c r="E181" s="64"/>
-    </row>
-    <row r="182" spans="1:5" s="3" customFormat="1">
+      <c r="F181" s="85"/>
+      <c r="G181" s="81"/>
+      <c r="H181" s="81"/>
+    </row>
+    <row r="182" spans="1:8" s="3" customFormat="1">
       <c r="A182" s="19"/>
       <c r="B182" s="31"/>
       <c r="C182" s="31"/>
       <c r="D182" s="59"/>
       <c r="E182" s="64"/>
-    </row>
-    <row r="183" spans="1:5" s="3" customFormat="1" ht="23.4">
+      <c r="F182" s="85"/>
+      <c r="G182" s="81"/>
+      <c r="H182" s="81"/>
+    </row>
+    <row r="183" spans="1:8" s="3" customFormat="1" ht="23.4">
       <c r="A183" s="21"/>
       <c r="B183" s="33"/>
       <c r="C183" s="33"/>
       <c r="D183" s="59"/>
       <c r="E183" s="64"/>
-    </row>
-    <row r="184" spans="1:5" s="3" customFormat="1">
+      <c r="F183" s="85"/>
+      <c r="G183" s="81"/>
+      <c r="H183" s="81"/>
+    </row>
+    <row r="184" spans="1:8" s="3" customFormat="1">
       <c r="A184" s="21"/>
       <c r="B184" s="34"/>
       <c r="C184" s="34"/>
       <c r="D184" s="59"/>
       <c r="E184" s="64"/>
-    </row>
-    <row r="185" spans="1:5" s="3" customFormat="1">
+      <c r="F184" s="85"/>
+      <c r="G184" s="81"/>
+      <c r="H184" s="81"/>
+    </row>
+    <row r="185" spans="1:8" s="3" customFormat="1">
       <c r="A185" s="21"/>
       <c r="B185" s="31"/>
       <c r="C185" s="31"/>
       <c r="D185" s="59"/>
       <c r="E185" s="64"/>
-    </row>
-    <row r="186" spans="1:5" s="3" customFormat="1">
+      <c r="F185" s="85"/>
+      <c r="G185" s="81"/>
+      <c r="H185" s="81"/>
+    </row>
+    <row r="186" spans="1:8" s="3" customFormat="1">
       <c r="A186" s="21"/>
       <c r="B186" s="31"/>
       <c r="C186" s="31"/>
       <c r="D186" s="59"/>
       <c r="E186" s="64"/>
-    </row>
-    <row r="187" spans="1:5" s="3" customFormat="1">
+      <c r="F186" s="85"/>
+      <c r="G186" s="81"/>
+      <c r="H186" s="81"/>
+    </row>
+    <row r="187" spans="1:8" s="3" customFormat="1">
       <c r="A187" s="21"/>
       <c r="B187" s="31"/>
       <c r="C187" s="31"/>
       <c r="D187" s="59"/>
       <c r="E187" s="64"/>
-    </row>
-    <row r="188" spans="1:5" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="F187" s="85"/>
+      <c r="G187" s="81"/>
+      <c r="H187" s="81"/>
+    </row>
+    <row r="188" spans="1:8" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A188" s="19"/>
       <c r="B188" s="31"/>
       <c r="C188" s="31"/>
       <c r="D188" s="59"/>
       <c r="E188" s="64"/>
-    </row>
-    <row r="189" spans="1:5" s="3" customFormat="1">
+      <c r="F188" s="85"/>
+      <c r="G188" s="81"/>
+      <c r="H188" s="81"/>
+    </row>
+    <row r="189" spans="1:8" s="3" customFormat="1">
       <c r="A189" s="22"/>
       <c r="B189" s="31"/>
       <c r="C189" s="31"/>
       <c r="D189" s="59"/>
       <c r="E189" s="64"/>
-    </row>
-    <row r="190" spans="1:5" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="F189" s="85"/>
+      <c r="G189" s="81"/>
+      <c r="H189" s="81"/>
+    </row>
+    <row r="190" spans="1:8" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A190" s="19"/>
       <c r="B190" s="34"/>
       <c r="C190" s="34"/>
       <c r="D190" s="59"/>
       <c r="E190" s="64"/>
-    </row>
-    <row r="191" spans="1:5" s="3" customFormat="1">
+      <c r="F190" s="85"/>
+      <c r="G190" s="81"/>
+      <c r="H190" s="81"/>
+    </row>
+    <row r="191" spans="1:8" s="3" customFormat="1">
       <c r="A191" s="21"/>
       <c r="B191" s="31"/>
       <c r="C191" s="31"/>
       <c r="D191" s="59"/>
       <c r="E191" s="64"/>
-    </row>
-    <row r="192" spans="1:5" s="3" customFormat="1">
+      <c r="F191" s="85"/>
+      <c r="G191" s="81"/>
+      <c r="H191" s="81"/>
+    </row>
+    <row r="192" spans="1:8" s="3" customFormat="1">
       <c r="A192" s="21"/>
       <c r="B192" s="34"/>
       <c r="C192" s="34"/>
       <c r="D192" s="59"/>
       <c r="E192" s="64"/>
-    </row>
-    <row r="193" spans="1:5" s="3" customFormat="1">
+      <c r="F192" s="85"/>
+      <c r="G192" s="81"/>
+      <c r="H192" s="81"/>
+    </row>
+    <row r="193" spans="1:8" s="3" customFormat="1">
       <c r="A193" s="21"/>
       <c r="B193" s="31"/>
       <c r="C193" s="31"/>
       <c r="D193" s="59"/>
       <c r="E193" s="64"/>
-    </row>
-    <row r="194" spans="1:5" s="3" customFormat="1" ht="22.8">
+      <c r="F193" s="85"/>
+      <c r="G193" s="81"/>
+      <c r="H193" s="81"/>
+    </row>
+    <row r="194" spans="1:8" s="3" customFormat="1" ht="22.8">
       <c r="A194" s="18"/>
       <c r="B194" s="31"/>
       <c r="C194" s="31"/>
       <c r="D194" s="59"/>
       <c r="E194" s="64"/>
-    </row>
-    <row r="195" spans="1:5" s="3" customFormat="1">
+      <c r="F194" s="85"/>
+      <c r="G194" s="81"/>
+      <c r="H194" s="81"/>
+    </row>
+    <row r="195" spans="1:8" s="3" customFormat="1">
       <c r="A195" s="19"/>
       <c r="B195" s="31"/>
       <c r="C195" s="31"/>
       <c r="D195" s="59"/>
       <c r="E195" s="64"/>
-    </row>
-    <row r="196" spans="1:5" s="3" customFormat="1" ht="23.4">
+      <c r="F195" s="85"/>
+      <c r="G195" s="81"/>
+      <c r="H195" s="81"/>
+    </row>
+    <row r="196" spans="1:8" s="3" customFormat="1" ht="23.4">
       <c r="A196" s="21"/>
       <c r="B196" s="33"/>
       <c r="C196" s="33"/>
       <c r="D196" s="59"/>
       <c r="E196" s="64"/>
-    </row>
-    <row r="197" spans="1:5" s="3" customFormat="1">
+      <c r="F196" s="85"/>
+      <c r="G196" s="81"/>
+      <c r="H196" s="81"/>
+    </row>
+    <row r="197" spans="1:8" s="3" customFormat="1">
       <c r="A197" s="21"/>
       <c r="B197" s="34"/>
       <c r="C197" s="34"/>
       <c r="D197" s="59"/>
       <c r="E197" s="64"/>
-    </row>
-    <row r="198" spans="1:5" s="3" customFormat="1">
+      <c r="F197" s="85"/>
+      <c r="G197" s="81"/>
+      <c r="H197" s="81"/>
+    </row>
+    <row r="198" spans="1:8" s="3" customFormat="1">
       <c r="A198" s="21"/>
       <c r="B198" s="31"/>
       <c r="C198" s="31"/>
       <c r="D198" s="59"/>
       <c r="E198" s="64"/>
-    </row>
-    <row r="199" spans="1:5" s="3" customFormat="1">
+      <c r="F198" s="85"/>
+      <c r="G198" s="81"/>
+      <c r="H198" s="81"/>
+    </row>
+    <row r="199" spans="1:8" s="3" customFormat="1">
       <c r="A199" s="21"/>
       <c r="B199" s="31"/>
       <c r="C199" s="31"/>
       <c r="D199" s="59"/>
       <c r="E199" s="64"/>
-    </row>
-    <row r="200" spans="1:5" s="3" customFormat="1">
+      <c r="F199" s="85"/>
+      <c r="G199" s="81"/>
+      <c r="H199" s="81"/>
+    </row>
+    <row r="200" spans="1:8" s="3" customFormat="1">
       <c r="A200" s="21"/>
       <c r="B200" s="31"/>
       <c r="C200" s="31"/>
       <c r="D200" s="59"/>
       <c r="E200" s="64"/>
-    </row>
-    <row r="201" spans="1:5" s="3" customFormat="1">
+      <c r="F200" s="85"/>
+      <c r="G200" s="81"/>
+      <c r="H200" s="81"/>
+    </row>
+    <row r="201" spans="1:8" s="3" customFormat="1">
       <c r="A201" s="21"/>
       <c r="B201" s="31"/>
       <c r="C201" s="31"/>
       <c r="D201" s="59"/>
       <c r="E201" s="64"/>
-    </row>
-    <row r="202" spans="1:5" s="3" customFormat="1">
+      <c r="F201" s="85"/>
+      <c r="G201" s="81"/>
+      <c r="H201" s="81"/>
+    </row>
+    <row r="202" spans="1:8" s="3" customFormat="1">
       <c r="A202" s="21"/>
       <c r="B202" s="31"/>
       <c r="C202" s="31"/>
       <c r="D202" s="59"/>
       <c r="E202" s="64"/>
-    </row>
-    <row r="203" spans="1:5" s="3" customFormat="1">
+      <c r="F202" s="85"/>
+      <c r="G202" s="81"/>
+      <c r="H202" s="81"/>
+    </row>
+    <row r="203" spans="1:8" s="3" customFormat="1">
       <c r="A203" s="21"/>
       <c r="B203" s="31"/>
       <c r="C203" s="31"/>
       <c r="D203" s="59"/>
       <c r="E203" s="64"/>
-    </row>
-    <row r="204" spans="1:5" s="3" customFormat="1">
+      <c r="F203" s="85"/>
+      <c r="G203" s="81"/>
+      <c r="H203" s="81"/>
+    </row>
+    <row r="204" spans="1:8" s="3" customFormat="1">
       <c r="A204" s="21"/>
       <c r="B204" s="31"/>
       <c r="C204" s="31"/>
       <c r="D204" s="59"/>
       <c r="E204" s="64"/>
-    </row>
-    <row r="205" spans="1:5" s="3" customFormat="1">
+      <c r="F204" s="85"/>
+      <c r="G204" s="81"/>
+      <c r="H204" s="81"/>
+    </row>
+    <row r="205" spans="1:8" s="3" customFormat="1">
       <c r="A205" s="21"/>
       <c r="B205" s="31"/>
       <c r="C205" s="31"/>
       <c r="D205" s="59"/>
       <c r="E205" s="64"/>
-    </row>
-    <row r="206" spans="1:5" s="3" customFormat="1">
+      <c r="F205" s="85"/>
+      <c r="G205" s="81"/>
+      <c r="H205" s="81"/>
+    </row>
+    <row r="206" spans="1:8" s="3" customFormat="1">
       <c r="A206" s="21"/>
       <c r="B206" s="31"/>
       <c r="C206" s="31"/>
       <c r="D206" s="59"/>
       <c r="E206" s="64"/>
-    </row>
-    <row r="207" spans="1:5" s="3" customFormat="1">
+      <c r="F206" s="85"/>
+      <c r="G206" s="81"/>
+      <c r="H206" s="81"/>
+    </row>
+    <row r="207" spans="1:8" s="3" customFormat="1">
       <c r="A207" s="21"/>
       <c r="B207" s="31"/>
       <c r="C207" s="31"/>
       <c r="D207" s="59"/>
       <c r="E207" s="64"/>
-    </row>
-    <row r="208" spans="1:5" s="3" customFormat="1">
+      <c r="F207" s="85"/>
+      <c r="G207" s="81"/>
+      <c r="H207" s="81"/>
+    </row>
+    <row r="208" spans="1:8" s="3" customFormat="1">
       <c r="A208" s="21"/>
       <c r="B208" s="31"/>
       <c r="C208" s="31"/>
       <c r="D208" s="59"/>
       <c r="E208" s="64"/>
-    </row>
-    <row r="209" spans="1:5" s="3" customFormat="1">
+      <c r="F208" s="85"/>
+      <c r="G208" s="81"/>
+      <c r="H208" s="81"/>
+    </row>
+    <row r="209" spans="1:8" s="3" customFormat="1">
       <c r="A209" s="21"/>
       <c r="B209" s="31"/>
       <c r="C209" s="31"/>
       <c r="D209" s="59"/>
       <c r="E209" s="64"/>
-    </row>
-    <row r="210" spans="1:5" s="3" customFormat="1">
+      <c r="F209" s="85"/>
+      <c r="G209" s="81"/>
+      <c r="H209" s="81"/>
+    </row>
+    <row r="210" spans="1:8" s="3" customFormat="1">
       <c r="A210" s="21"/>
       <c r="B210" s="31"/>
       <c r="C210" s="31"/>
       <c r="D210" s="59"/>
       <c r="E210" s="64"/>
-    </row>
-    <row r="211" spans="1:5" s="3" customFormat="1">
+      <c r="F210" s="85"/>
+      <c r="G210" s="81"/>
+      <c r="H210" s="81"/>
+    </row>
+    <row r="211" spans="1:8" s="3" customFormat="1">
       <c r="A211" s="19"/>
       <c r="B211" s="31"/>
       <c r="C211" s="31"/>
       <c r="D211" s="59"/>
       <c r="E211" s="64"/>
-    </row>
-    <row r="212" spans="1:5" s="3" customFormat="1">
+      <c r="F211" s="85"/>
+      <c r="G211" s="81"/>
+      <c r="H211" s="81"/>
+    </row>
+    <row r="212" spans="1:8" s="3" customFormat="1">
       <c r="A212" s="23"/>
       <c r="B212" s="31"/>
       <c r="C212" s="31"/>
       <c r="D212" s="59"/>
       <c r="E212" s="64"/>
-    </row>
-    <row r="213" spans="1:5" s="3" customFormat="1">
+      <c r="F212" s="85"/>
+      <c r="G212" s="81"/>
+      <c r="H212" s="81"/>
+    </row>
+    <row r="213" spans="1:8" s="3" customFormat="1">
       <c r="A213" s="23"/>
       <c r="B213" s="34"/>
       <c r="C213" s="34"/>
       <c r="D213" s="59"/>
       <c r="E213" s="64"/>
-    </row>
-    <row r="214" spans="1:5" s="3" customFormat="1">
+      <c r="F213" s="85"/>
+      <c r="G213" s="81"/>
+      <c r="H213" s="81"/>
+    </row>
+    <row r="214" spans="1:8" s="3" customFormat="1">
       <c r="A214" s="23"/>
       <c r="B214" s="31"/>
       <c r="C214" s="31"/>
       <c r="D214" s="59"/>
       <c r="E214" s="64"/>
-    </row>
-    <row r="215" spans="1:5" s="3" customFormat="1">
+      <c r="F214" s="85"/>
+      <c r="G214" s="81"/>
+      <c r="H214" s="81"/>
+    </row>
+    <row r="215" spans="1:8" s="3" customFormat="1">
       <c r="A215" s="23"/>
       <c r="B215" s="31"/>
       <c r="C215" s="31"/>
       <c r="D215" s="59"/>
       <c r="E215" s="64"/>
-    </row>
-    <row r="216" spans="1:5" s="3" customFormat="1">
+      <c r="F215" s="85"/>
+      <c r="G215" s="81"/>
+      <c r="H215" s="81"/>
+    </row>
+    <row r="216" spans="1:8" s="3" customFormat="1">
       <c r="A216" s="23"/>
       <c r="B216" s="31"/>
       <c r="C216" s="31"/>
       <c r="D216" s="59"/>
       <c r="E216" s="64"/>
-    </row>
-    <row r="217" spans="1:5" s="3" customFormat="1">
+      <c r="F216" s="85"/>
+      <c r="G216" s="81"/>
+      <c r="H216" s="81"/>
+    </row>
+    <row r="217" spans="1:8" s="3" customFormat="1">
       <c r="A217" s="23"/>
       <c r="B217" s="31"/>
       <c r="C217" s="31"/>
       <c r="D217" s="59"/>
       <c r="E217" s="64"/>
-    </row>
-    <row r="218" spans="1:5" s="3" customFormat="1">
+      <c r="F217" s="85"/>
+      <c r="G217" s="81"/>
+      <c r="H217" s="81"/>
+    </row>
+    <row r="218" spans="1:8" s="3" customFormat="1">
       <c r="A218" s="23"/>
       <c r="B218" s="31"/>
       <c r="C218" s="31"/>
       <c r="D218" s="59"/>
       <c r="E218" s="64"/>
-    </row>
-    <row r="219" spans="1:5" s="3" customFormat="1">
+      <c r="F218" s="85"/>
+      <c r="G218" s="81"/>
+      <c r="H218" s="81"/>
+    </row>
+    <row r="219" spans="1:8" s="3" customFormat="1">
       <c r="A219" s="23"/>
       <c r="B219" s="31"/>
       <c r="C219" s="31"/>
       <c r="D219" s="59"/>
       <c r="E219" s="64"/>
-    </row>
-    <row r="220" spans="1:5" s="3" customFormat="1">
+      <c r="F219" s="85"/>
+      <c r="G219" s="81"/>
+      <c r="H219" s="81"/>
+    </row>
+    <row r="220" spans="1:8" s="3" customFormat="1">
       <c r="A220" s="23"/>
       <c r="B220" s="31"/>
       <c r="C220" s="31"/>
       <c r="D220" s="59"/>
       <c r="E220" s="64"/>
-    </row>
-    <row r="221" spans="1:5" s="3" customFormat="1">
+      <c r="F220" s="85"/>
+      <c r="G220" s="81"/>
+      <c r="H220" s="81"/>
+    </row>
+    <row r="221" spans="1:8" s="3" customFormat="1">
       <c r="A221" s="23"/>
       <c r="B221" s="31"/>
       <c r="C221" s="31"/>
       <c r="D221" s="59"/>
       <c r="E221" s="64"/>
-    </row>
-    <row r="222" spans="1:5" s="3" customFormat="1">
+      <c r="F221" s="85"/>
+      <c r="G221" s="81"/>
+      <c r="H221" s="81"/>
+    </row>
+    <row r="222" spans="1:8" s="3" customFormat="1">
       <c r="A222" s="23"/>
       <c r="B222" s="31"/>
       <c r="C222" s="31"/>
       <c r="D222" s="59"/>
       <c r="E222" s="64"/>
-    </row>
-    <row r="223" spans="1:5" s="3" customFormat="1">
+      <c r="F222" s="85"/>
+      <c r="G222" s="81"/>
+      <c r="H222" s="81"/>
+    </row>
+    <row r="223" spans="1:8" s="3" customFormat="1">
       <c r="A223" s="23"/>
       <c r="B223" s="31"/>
       <c r="C223" s="31"/>
       <c r="D223" s="59"/>
       <c r="E223" s="64"/>
-    </row>
-    <row r="224" spans="1:5" s="3" customFormat="1">
+      <c r="F223" s="85"/>
+      <c r="G223" s="81"/>
+      <c r="H223" s="81"/>
+    </row>
+    <row r="224" spans="1:8" s="3" customFormat="1">
       <c r="A224" s="23"/>
       <c r="B224" s="31"/>
       <c r="C224" s="31"/>
       <c r="D224" s="59"/>
       <c r="E224" s="64"/>
-    </row>
-    <row r="225" spans="1:5" s="3" customFormat="1">
+      <c r="F224" s="85"/>
+      <c r="G224" s="81"/>
+      <c r="H224" s="81"/>
+    </row>
+    <row r="225" spans="1:8" s="3" customFormat="1">
       <c r="A225" s="23"/>
       <c r="B225" s="31"/>
       <c r="C225" s="31"/>
       <c r="D225" s="59"/>
       <c r="E225" s="64"/>
-    </row>
-    <row r="226" spans="1:5" s="3" customFormat="1">
+      <c r="F225" s="85"/>
+      <c r="G225" s="81"/>
+      <c r="H225" s="81"/>
+    </row>
+    <row r="226" spans="1:8" s="3" customFormat="1">
       <c r="A226" s="19"/>
       <c r="B226" s="31"/>
       <c r="C226" s="31"/>
       <c r="D226" s="59"/>
       <c r="E226" s="64"/>
-    </row>
-    <row r="227" spans="1:5" s="3" customFormat="1">
+      <c r="F226" s="85"/>
+      <c r="G226" s="81"/>
+      <c r="H226" s="81"/>
+    </row>
+    <row r="227" spans="1:8" s="3" customFormat="1">
       <c r="A227" s="23"/>
       <c r="B227" s="31"/>
       <c r="C227" s="31"/>
       <c r="D227" s="59"/>
       <c r="E227" s="64"/>
-    </row>
-    <row r="228" spans="1:5" s="3" customFormat="1">
+      <c r="F227" s="85"/>
+      <c r="G227" s="81"/>
+      <c r="H227" s="81"/>
+    </row>
+    <row r="228" spans="1:8" s="3" customFormat="1">
       <c r="A228" s="23"/>
       <c r="B228" s="34"/>
       <c r="C228" s="34"/>
       <c r="D228" s="59"/>
       <c r="E228" s="64"/>
-    </row>
-    <row r="229" spans="1:5" s="3" customFormat="1">
+      <c r="F228" s="85"/>
+      <c r="G228" s="81"/>
+      <c r="H228" s="81"/>
+    </row>
+    <row r="229" spans="1:8" s="3" customFormat="1">
       <c r="A229" s="23"/>
       <c r="B229" s="31"/>
       <c r="C229" s="31"/>
       <c r="D229" s="59"/>
       <c r="E229" s="64"/>
-    </row>
-    <row r="230" spans="1:5" s="3" customFormat="1">
+      <c r="F229" s="85"/>
+      <c r="G229" s="81"/>
+      <c r="H229" s="81"/>
+    </row>
+    <row r="230" spans="1:8" s="3" customFormat="1">
       <c r="A230" s="23"/>
       <c r="B230" s="31"/>
       <c r="C230" s="31"/>
       <c r="D230" s="59"/>
       <c r="E230" s="64"/>
-    </row>
-    <row r="231" spans="1:5" s="3" customFormat="1">
+      <c r="F230" s="85"/>
+      <c r="G230" s="81"/>
+      <c r="H230" s="81"/>
+    </row>
+    <row r="231" spans="1:8" s="3" customFormat="1">
       <c r="A231" s="23"/>
       <c r="B231" s="31"/>
       <c r="C231" s="31"/>
       <c r="D231" s="59"/>
       <c r="E231" s="64"/>
-    </row>
-    <row r="232" spans="1:5" s="3" customFormat="1">
+      <c r="F231" s="85"/>
+      <c r="G231" s="81"/>
+      <c r="H231" s="81"/>
+    </row>
+    <row r="232" spans="1:8" s="3" customFormat="1">
       <c r="A232" s="23"/>
       <c r="B232" s="31"/>
       <c r="C232" s="31"/>
       <c r="D232" s="59"/>
       <c r="E232" s="64"/>
-    </row>
-    <row r="233" spans="1:5" s="3" customFormat="1">
+      <c r="F232" s="85"/>
+      <c r="G232" s="81"/>
+      <c r="H232" s="81"/>
+    </row>
+    <row r="233" spans="1:8" s="3" customFormat="1">
       <c r="A233" s="23"/>
       <c r="B233" s="31"/>
       <c r="C233" s="31"/>
       <c r="D233" s="59"/>
       <c r="E233" s="64"/>
-    </row>
-    <row r="234" spans="1:5" s="3" customFormat="1">
+      <c r="F233" s="85"/>
+      <c r="G233" s="81"/>
+      <c r="H233" s="81"/>
+    </row>
+    <row r="234" spans="1:8" s="3" customFormat="1">
       <c r="A234" s="23"/>
       <c r="B234" s="31"/>
       <c r="C234" s="31"/>
       <c r="D234" s="59"/>
       <c r="E234" s="64"/>
-    </row>
-    <row r="235" spans="1:5" s="3" customFormat="1">
+      <c r="F234" s="85"/>
+      <c r="G234" s="81"/>
+      <c r="H234" s="81"/>
+    </row>
+    <row r="235" spans="1:8" s="3" customFormat="1">
       <c r="A235" s="23"/>
       <c r="B235" s="31"/>
       <c r="C235" s="31"/>
       <c r="D235" s="59"/>
       <c r="E235" s="64"/>
-    </row>
-    <row r="236" spans="1:5" s="3" customFormat="1">
+      <c r="F235" s="85"/>
+      <c r="G235" s="81"/>
+      <c r="H235" s="81"/>
+    </row>
+    <row r="236" spans="1:8" s="3" customFormat="1">
       <c r="A236" s="23"/>
       <c r="B236" s="31"/>
       <c r="C236" s="31"/>
       <c r="D236" s="59"/>
       <c r="E236" s="64"/>
-    </row>
-    <row r="237" spans="1:5" s="3" customFormat="1">
+      <c r="F236" s="85"/>
+      <c r="G236" s="81"/>
+      <c r="H236" s="81"/>
+    </row>
+    <row r="237" spans="1:8" s="3" customFormat="1">
       <c r="A237" s="23"/>
       <c r="B237" s="31"/>
       <c r="C237" s="31"/>
       <c r="D237" s="59"/>
       <c r="E237" s="64"/>
-    </row>
-    <row r="238" spans="1:5" s="3" customFormat="1">
+      <c r="F237" s="85"/>
+      <c r="G237" s="81"/>
+      <c r="H237" s="81"/>
+    </row>
+    <row r="238" spans="1:8" s="3" customFormat="1">
       <c r="A238" s="23"/>
       <c r="B238" s="31"/>
       <c r="C238" s="31"/>
       <c r="D238" s="59"/>
       <c r="E238" s="64"/>
-    </row>
-    <row r="239" spans="1:5" s="3" customFormat="1">
+      <c r="F238" s="85"/>
+      <c r="G238" s="81"/>
+      <c r="H238" s="81"/>
+    </row>
+    <row r="239" spans="1:8" s="3" customFormat="1">
       <c r="A239" s="23"/>
       <c r="B239" s="31"/>
       <c r="C239" s="31"/>
       <c r="D239" s="59"/>
       <c r="E239" s="64"/>
-    </row>
-    <row r="240" spans="1:5" s="3" customFormat="1">
+      <c r="F239" s="85"/>
+      <c r="G239" s="81"/>
+      <c r="H239" s="81"/>
+    </row>
+    <row r="240" spans="1:8" s="3" customFormat="1">
       <c r="A240" s="23"/>
       <c r="B240" s="31"/>
       <c r="C240" s="31"/>
       <c r="D240" s="59"/>
       <c r="E240" s="64"/>
-    </row>
-    <row r="241" spans="1:5" s="3" customFormat="1" ht="22.8">
+      <c r="F240" s="85"/>
+      <c r="G240" s="81"/>
+      <c r="H240" s="81"/>
+    </row>
+    <row r="241" spans="1:8" s="3" customFormat="1" ht="22.8">
       <c r="A241" s="18"/>
       <c r="B241" s="31"/>
       <c r="C241" s="31"/>
       <c r="D241" s="59"/>
       <c r="E241" s="64"/>
-    </row>
-    <row r="242" spans="1:5" s="3" customFormat="1">
+      <c r="F241" s="85"/>
+      <c r="G241" s="81"/>
+      <c r="H241" s="81"/>
+    </row>
+    <row r="242" spans="1:8" s="3" customFormat="1">
       <c r="A242" s="23"/>
       <c r="B242" s="31"/>
       <c r="C242" s="31"/>
       <c r="D242" s="59"/>
       <c r="E242" s="64"/>
-    </row>
-    <row r="243" spans="1:5" s="3" customFormat="1" ht="23.4">
+      <c r="F242" s="85"/>
+      <c r="G242" s="81"/>
+      <c r="H242" s="81"/>
+    </row>
+    <row r="243" spans="1:8" s="3" customFormat="1" ht="23.4">
       <c r="A243" s="23"/>
       <c r="B243" s="33"/>
       <c r="C243" s="33"/>
       <c r="D243" s="59"/>
       <c r="E243" s="64"/>
-    </row>
-    <row r="244" spans="1:5" s="3" customFormat="1">
+      <c r="F243" s="85"/>
+      <c r="G243" s="81"/>
+      <c r="H243" s="81"/>
+    </row>
+    <row r="244" spans="1:8" s="3" customFormat="1">
       <c r="A244" s="23"/>
       <c r="B244" s="31"/>
       <c r="C244" s="31"/>
       <c r="D244" s="59"/>
       <c r="E244" s="64"/>
-    </row>
-    <row r="245" spans="1:5" s="3" customFormat="1">
+      <c r="F244" s="85"/>
+      <c r="G244" s="81"/>
+      <c r="H244" s="81"/>
+    </row>
+    <row r="245" spans="1:8" s="3" customFormat="1">
       <c r="A245" s="23"/>
       <c r="B245" s="31"/>
       <c r="C245" s="31"/>
       <c r="D245" s="59"/>
       <c r="E245" s="64"/>
-    </row>
-    <row r="246" spans="1:5" s="3" customFormat="1">
+      <c r="F245" s="85"/>
+      <c r="G245" s="81"/>
+      <c r="H245" s="81"/>
+    </row>
+    <row r="246" spans="1:8" s="3" customFormat="1">
       <c r="A246" s="23"/>
       <c r="B246" s="31"/>
       <c r="C246" s="31"/>
       <c r="D246" s="59"/>
       <c r="E246" s="64"/>
-    </row>
-    <row r="247" spans="1:5" s="3" customFormat="1">
+      <c r="F246" s="85"/>
+      <c r="G246" s="81"/>
+      <c r="H246" s="81"/>
+    </row>
+    <row r="247" spans="1:8" s="3" customFormat="1">
       <c r="A247" s="23"/>
       <c r="B247" s="31"/>
       <c r="C247" s="31"/>
       <c r="D247" s="59"/>
       <c r="E247" s="64"/>
-    </row>
-    <row r="248" spans="1:5" s="3" customFormat="1">
+      <c r="F247" s="85"/>
+      <c r="G247" s="81"/>
+      <c r="H247" s="81"/>
+    </row>
+    <row r="248" spans="1:8" s="3" customFormat="1">
       <c r="A248" s="23"/>
       <c r="B248" s="31"/>
       <c r="C248" s="31"/>
       <c r="D248" s="59"/>
       <c r="E248" s="64"/>
-    </row>
-    <row r="249" spans="1:5" s="3" customFormat="1">
+      <c r="F248" s="85"/>
+      <c r="G248" s="81"/>
+      <c r="H248" s="81"/>
+    </row>
+    <row r="249" spans="1:8" s="3" customFormat="1">
       <c r="A249" s="23"/>
       <c r="B249" s="31"/>
       <c r="C249" s="31"/>
       <c r="D249" s="59"/>
       <c r="E249" s="64"/>
-    </row>
-    <row r="250" spans="1:5" s="3" customFormat="1">
+      <c r="F249" s="85"/>
+      <c r="G249" s="81"/>
+      <c r="H249" s="81"/>
+    </row>
+    <row r="250" spans="1:8" s="3" customFormat="1">
       <c r="A250" s="23"/>
       <c r="B250" s="31"/>
       <c r="C250" s="31"/>
       <c r="D250" s="59"/>
       <c r="E250" s="64"/>
-    </row>
-    <row r="251" spans="1:5" s="3" customFormat="1" ht="22.8">
+      <c r="F250" s="85"/>
+      <c r="G250" s="81"/>
+      <c r="H250" s="81"/>
+    </row>
+    <row r="251" spans="1:8" s="3" customFormat="1" ht="22.8">
       <c r="A251" s="18"/>
       <c r="B251" s="31"/>
       <c r="C251" s="31"/>
       <c r="D251" s="59"/>
       <c r="E251" s="64"/>
-    </row>
-    <row r="252" spans="1:5" s="3" customFormat="1">
+      <c r="F251" s="85"/>
+      <c r="G251" s="81"/>
+      <c r="H251" s="81"/>
+    </row>
+    <row r="252" spans="1:8" s="3" customFormat="1">
       <c r="A252" s="22"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31"/>
       <c r="D252" s="59"/>
       <c r="E252" s="64"/>
-    </row>
-    <row r="253" spans="1:5" s="3" customFormat="1">
+      <c r="F252" s="85"/>
+      <c r="G252" s="81"/>
+      <c r="H252" s="81"/>
+    </row>
+    <row r="253" spans="1:8" s="3" customFormat="1">
       <c r="A253" s="22"/>
       <c r="B253" s="31"/>
       <c r="C253" s="31"/>
       <c r="D253" s="59"/>
       <c r="E253" s="64"/>
-    </row>
-    <row r="254" spans="1:5" s="3" customFormat="1">
+      <c r="F253" s="85"/>
+      <c r="G253" s="81"/>
+      <c r="H253" s="81"/>
+    </row>
+    <row r="254" spans="1:8" s="3" customFormat="1">
       <c r="A254" s="24"/>
       <c r="B254" s="31"/>
       <c r="C254" s="31"/>
       <c r="D254" s="59"/>
       <c r="E254" s="64"/>
-    </row>
-    <row r="255" spans="1:5" s="3" customFormat="1">
+      <c r="F254" s="85"/>
+      <c r="G254" s="81"/>
+      <c r="H254" s="81"/>
+    </row>
+    <row r="255" spans="1:8" s="3" customFormat="1">
       <c r="A255" s="24"/>
       <c r="B255" s="31"/>
       <c r="C255" s="31"/>
       <c r="D255" s="59"/>
       <c r="E255" s="64"/>
-    </row>
-    <row r="256" spans="1:5" s="3" customFormat="1">
+      <c r="F255" s="85"/>
+      <c r="G255" s="81"/>
+      <c r="H255" s="81"/>
+    </row>
+    <row r="256" spans="1:8" s="3" customFormat="1">
       <c r="A256" s="24"/>
       <c r="B256" s="31"/>
       <c r="C256" s="31"/>
       <c r="D256" s="59"/>
       <c r="E256" s="64"/>
-    </row>
-    <row r="257" spans="1:5" s="3" customFormat="1">
+      <c r="F256" s="85"/>
+      <c r="G256" s="81"/>
+      <c r="H256" s="81"/>
+    </row>
+    <row r="257" spans="1:8" s="3" customFormat="1">
       <c r="A257" s="24"/>
       <c r="B257" s="31"/>
       <c r="C257" s="31"/>
       <c r="D257" s="59"/>
       <c r="E257" s="64"/>
-    </row>
-    <row r="258" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="F257" s="85"/>
+      <c r="G257" s="81"/>
+      <c r="H257" s="81"/>
+    </row>
+    <row r="258" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1">
       <c r="A258" s="24"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
       <c r="D258" s="59"/>
       <c r="E258" s="64"/>
-    </row>
-    <row r="259" spans="1:5" s="3" customFormat="1">
+      <c r="F258" s="85"/>
+      <c r="G258" s="81"/>
+      <c r="H258" s="81"/>
+    </row>
+    <row r="259" spans="1:8" s="3" customFormat="1">
       <c r="A259" s="24"/>
       <c r="B259" s="31"/>
       <c r="C259" s="31"/>
       <c r="D259" s="59"/>
       <c r="E259" s="64"/>
-    </row>
-    <row r="260" spans="1:5" s="3" customFormat="1">
+      <c r="F259" s="85"/>
+      <c r="G259" s="81"/>
+      <c r="H259" s="81"/>
+    </row>
+    <row r="260" spans="1:8" s="3" customFormat="1">
       <c r="A260" s="24"/>
       <c r="B260" s="31"/>
       <c r="C260" s="31"/>
       <c r="D260" s="59"/>
       <c r="E260" s="64"/>
-    </row>
-    <row r="261" spans="1:5" s="3" customFormat="1">
+      <c r="F260" s="85"/>
+      <c r="G260" s="81"/>
+      <c r="H260" s="81"/>
+    </row>
+    <row r="261" spans="1:8" s="3" customFormat="1">
       <c r="A261" s="24"/>
       <c r="B261" s="31"/>
       <c r="C261" s="31"/>
       <c r="D261" s="59"/>
       <c r="E261" s="64"/>
-    </row>
-    <row r="262" spans="1:5" s="3" customFormat="1">
+      <c r="F261" s="85"/>
+      <c r="G261" s="81"/>
+      <c r="H261" s="81"/>
+    </row>
+    <row r="262" spans="1:8" s="3" customFormat="1">
       <c r="A262" s="24"/>
       <c r="B262" s="31"/>
       <c r="C262" s="31"/>
       <c r="D262" s="59"/>
       <c r="E262" s="64"/>
-    </row>
-    <row r="263" spans="1:5" s="3" customFormat="1" ht="22.8">
+      <c r="F262" s="85"/>
+      <c r="G262" s="81"/>
+      <c r="H262" s="81"/>
+    </row>
+    <row r="263" spans="1:8" s="3" customFormat="1" ht="22.8">
       <c r="A263" s="18"/>
       <c r="B263" s="31"/>
       <c r="C263" s="31"/>
       <c r="D263" s="59"/>
       <c r="E263" s="64"/>
-    </row>
-    <row r="264" spans="1:5" s="3" customFormat="1">
+      <c r="F263" s="85"/>
+      <c r="G263" s="81"/>
+      <c r="H263" s="81"/>
+    </row>
+    <row r="264" spans="1:8" s="3" customFormat="1">
       <c r="A264" s="23"/>
       <c r="B264" s="31"/>
       <c r="C264" s="31"/>
       <c r="D264" s="59"/>
       <c r="E264" s="64"/>
-    </row>
-    <row r="265" spans="1:5" s="3" customFormat="1">
+      <c r="F264" s="85"/>
+      <c r="G264" s="81"/>
+      <c r="H264" s="81"/>
+    </row>
+    <row r="265" spans="1:8" s="3" customFormat="1">
       <c r="A265" s="23"/>
       <c r="B265" s="31"/>
       <c r="C265" s="31"/>
       <c r="D265" s="59"/>
       <c r="E265" s="64"/>
-    </row>
-    <row r="266" spans="1:5" s="3" customFormat="1">
+      <c r="F265" s="85"/>
+      <c r="G265" s="81"/>
+      <c r="H265" s="81"/>
+    </row>
+    <row r="266" spans="1:8" s="3" customFormat="1">
       <c r="A266" s="23"/>
       <c r="B266" s="31"/>
       <c r="C266" s="31"/>
       <c r="D266" s="59"/>
       <c r="E266" s="64"/>
-    </row>
-    <row r="267" spans="1:5" s="3" customFormat="1" ht="12.6" customHeight="1">
+      <c r="F266" s="85"/>
+      <c r="G266" s="81"/>
+      <c r="H266" s="81"/>
+    </row>
+    <row r="267" spans="1:8" s="3" customFormat="1" ht="12.6" customHeight="1">
       <c r="A267" s="23"/>
       <c r="B267" s="33"/>
       <c r="C267" s="33"/>
       <c r="D267" s="59"/>
       <c r="E267" s="64"/>
-    </row>
-    <row r="268" spans="1:5" s="3" customFormat="1">
+      <c r="F267" s="85"/>
+      <c r="G267" s="81"/>
+      <c r="H267" s="81"/>
+    </row>
+    <row r="268" spans="1:8" s="3" customFormat="1">
       <c r="A268" s="23"/>
       <c r="B268" s="31"/>
       <c r="C268" s="31"/>
       <c r="D268" s="59"/>
       <c r="E268" s="64"/>
-    </row>
-    <row r="269" spans="1:5" s="3" customFormat="1">
+      <c r="F268" s="85"/>
+      <c r="G268" s="81"/>
+      <c r="H268" s="81"/>
+    </row>
+    <row r="269" spans="1:8" s="3" customFormat="1">
       <c r="A269" s="23"/>
       <c r="B269" s="31"/>
       <c r="C269" s="31"/>
       <c r="D269" s="59"/>
       <c r="E269" s="64"/>
-    </row>
-    <row r="270" spans="1:5" s="3" customFormat="1">
+      <c r="F269" s="85"/>
+      <c r="G269" s="81"/>
+      <c r="H269" s="81"/>
+    </row>
+    <row r="270" spans="1:8" s="3" customFormat="1">
       <c r="A270" s="23"/>
       <c r="B270" s="31"/>
       <c r="C270" s="31"/>
       <c r="D270" s="59"/>
       <c r="E270" s="64"/>
-    </row>
-    <row r="271" spans="1:5" s="3" customFormat="1">
+      <c r="F270" s="85"/>
+      <c r="G270" s="81"/>
+      <c r="H270" s="81"/>
+    </row>
+    <row r="271" spans="1:8" s="3" customFormat="1">
       <c r="A271" s="23"/>
       <c r="B271" s="31"/>
       <c r="C271" s="31"/>
       <c r="D271" s="59"/>
       <c r="E271" s="64"/>
-    </row>
-    <row r="272" spans="1:5" s="3" customFormat="1">
+      <c r="F271" s="85"/>
+      <c r="G271" s="81"/>
+      <c r="H271" s="81"/>
+    </row>
+    <row r="272" spans="1:8" s="3" customFormat="1">
       <c r="A272" s="23"/>
       <c r="B272" s="31"/>
       <c r="C272" s="31"/>
       <c r="D272" s="59"/>
       <c r="E272" s="64"/>
-    </row>
-    <row r="273" spans="1:5" s="3" customFormat="1">
+      <c r="F272" s="85"/>
+      <c r="G272" s="81"/>
+      <c r="H272" s="81"/>
+    </row>
+    <row r="273" spans="1:8" s="3" customFormat="1">
       <c r="A273" s="23"/>
       <c r="B273" s="31"/>
       <c r="C273" s="31"/>
       <c r="D273" s="59"/>
       <c r="E273" s="64"/>
-    </row>
-    <row r="274" spans="1:5" s="3" customFormat="1">
+      <c r="F273" s="85"/>
+      <c r="G273" s="81"/>
+      <c r="H273" s="81"/>
+    </row>
+    <row r="274" spans="1:8" s="3" customFormat="1">
       <c r="A274" s="23"/>
       <c r="B274" s="31"/>
       <c r="C274" s="31"/>
       <c r="D274" s="59"/>
       <c r="E274" s="64"/>
-    </row>
-    <row r="275" spans="1:5" s="3" customFormat="1">
+      <c r="F274" s="85"/>
+      <c r="G274" s="81"/>
+      <c r="H274" s="81"/>
+    </row>
+    <row r="275" spans="1:8" s="3" customFormat="1">
       <c r="A275" s="23"/>
       <c r="B275" s="31"/>
       <c r="C275" s="31"/>
       <c r="D275" s="59"/>
       <c r="E275" s="64"/>
-    </row>
-    <row r="276" spans="1:5" s="3" customFormat="1">
+      <c r="F275" s="85"/>
+      <c r="G275" s="81"/>
+      <c r="H275" s="81"/>
+    </row>
+    <row r="276" spans="1:8" s="3" customFormat="1">
       <c r="A276" s="23"/>
       <c r="B276" s="31"/>
       <c r="C276" s="31"/>
       <c r="D276" s="59"/>
       <c r="E276" s="64"/>
-    </row>
-    <row r="277" spans="1:5" s="3" customFormat="1">
+      <c r="F276" s="85"/>
+      <c r="G276" s="81"/>
+      <c r="H276" s="81"/>
+    </row>
+    <row r="277" spans="1:8" s="3" customFormat="1">
       <c r="A277" s="23"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31"/>
       <c r="D277" s="59"/>
       <c r="E277" s="64"/>
-    </row>
-    <row r="278" spans="1:5" s="3" customFormat="1">
+      <c r="F277" s="85"/>
+      <c r="G277" s="81"/>
+      <c r="H277" s="81"/>
+    </row>
+    <row r="278" spans="1:8" s="3" customFormat="1">
       <c r="A278" s="23"/>
       <c r="B278" s="31"/>
       <c r="C278" s="31"/>
       <c r="D278" s="59"/>
       <c r="E278" s="64"/>
-    </row>
-    <row r="279" spans="1:5" s="3" customFormat="1">
+      <c r="F278" s="85"/>
+      <c r="G278" s="81"/>
+      <c r="H278" s="81"/>
+    </row>
+    <row r="279" spans="1:8" s="3" customFormat="1">
       <c r="A279" s="21"/>
       <c r="B279" s="31"/>
       <c r="C279" s="31"/>
       <c r="D279" s="59"/>
       <c r="E279" s="64"/>
-    </row>
-    <row r="280" spans="1:5" s="3" customFormat="1">
+      <c r="F279" s="85"/>
+      <c r="G279" s="81"/>
+      <c r="H279" s="81"/>
+    </row>
+    <row r="280" spans="1:8" s="3" customFormat="1">
       <c r="A280" s="21"/>
       <c r="B280" s="31"/>
       <c r="C280" s="31"/>
       <c r="D280" s="59"/>
       <c r="E280" s="64"/>
-    </row>
-    <row r="281" spans="1:5" s="3" customFormat="1">
+      <c r="F280" s="85"/>
+      <c r="G280" s="81"/>
+      <c r="H280" s="81"/>
+    </row>
+    <row r="281" spans="1:8" s="3" customFormat="1">
       <c r="A281" s="21"/>
       <c r="B281" s="31"/>
       <c r="C281" s="31"/>
       <c r="D281" s="59"/>
       <c r="E281" s="64"/>
-    </row>
-    <row r="282" spans="1:5" s="3" customFormat="1">
+      <c r="F281" s="85"/>
+      <c r="G281" s="81"/>
+      <c r="H281" s="81"/>
+    </row>
+    <row r="282" spans="1:8" s="3" customFormat="1">
       <c r="A282" s="21"/>
       <c r="B282" s="31"/>
       <c r="C282" s="31"/>
       <c r="D282" s="59"/>
       <c r="E282" s="64"/>
-    </row>
-    <row r="283" spans="1:5" s="3" customFormat="1">
+      <c r="F282" s="85"/>
+      <c r="G282" s="81"/>
+      <c r="H282" s="81"/>
+    </row>
+    <row r="283" spans="1:8" s="3" customFormat="1">
       <c r="A283" s="21"/>
       <c r="B283" s="31"/>
       <c r="C283" s="31"/>
       <c r="D283" s="59"/>
       <c r="E283" s="64"/>
-    </row>
-    <row r="284" spans="1:5" s="3" customFormat="1">
+      <c r="F283" s="85"/>
+      <c r="G283" s="81"/>
+      <c r="H283" s="81"/>
+    </row>
+    <row r="284" spans="1:8" s="3" customFormat="1">
       <c r="A284" s="21"/>
       <c r="B284" s="31"/>
       <c r="C284" s="31"/>
       <c r="D284" s="59"/>
       <c r="E284" s="64"/>
-    </row>
-    <row r="285" spans="1:5" s="3" customFormat="1">
+      <c r="F284" s="85"/>
+      <c r="G284" s="81"/>
+      <c r="H284" s="81"/>
+    </row>
+    <row r="285" spans="1:8" s="3" customFormat="1">
       <c r="A285" s="25"/>
       <c r="B285" s="31"/>
       <c r="C285" s="31"/>
       <c r="D285" s="59"/>
       <c r="E285" s="64"/>
-    </row>
-    <row r="286" spans="1:5" s="3" customFormat="1" ht="22.8">
+      <c r="F285" s="85"/>
+      <c r="G285" s="81"/>
+      <c r="H285" s="81"/>
+    </row>
+    <row r="286" spans="1:8" s="3" customFormat="1" ht="22.8">
       <c r="A286" s="18"/>
       <c r="B286" s="31"/>
       <c r="C286" s="31"/>
       <c r="D286" s="59"/>
       <c r="E286" s="64"/>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286" s="85"/>
+      <c r="G286" s="81"/>
+      <c r="H286" s="81"/>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="26"/>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:8">
       <c r="A288" s="27"/>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:8">
       <c r="A289" s="28"/>
     </row>
-    <row r="290" spans="1:5" s="2" customFormat="1" ht="14.4" customHeight="1">
+    <row r="290" spans="1:8" s="2" customFormat="1" ht="14.4" customHeight="1">
       <c r="A290" s="27"/>
       <c r="B290" s="36"/>
       <c r="C290" s="36"/>
       <c r="D290" s="63"/>
       <c r="E290" s="64"/>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290" s="86"/>
+      <c r="G290" s="82"/>
+      <c r="H290" s="82"/>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="27"/>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:8">
       <c r="A292" s="27"/>
     </row>
   </sheetData>
